--- a/Assignment1/confusion_matrix.xlsx
+++ b/Assignment1/confusion_matrix.xlsx
@@ -450,7 +450,7 @@
         <v>-805.8959136868591</v>
       </c>
       <c r="B2" t="n">
-        <v>-2909.895913686859</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>284.9779751182134</v>
       </c>
       <c r="B3" t="n">
-        <v>677.4779751182134</v>
+        <v>-392.5</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>150.875987737091</v>
       </c>
       <c r="B4" t="n">
-        <v>773.875987737091</v>
+        <v>-623</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>89.37649712765153</v>
       </c>
       <c r="B5" t="n">
-        <v>-84.87350287234847</v>
+        <v>174.25</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>416.2947831149792</v>
       </c>
       <c r="B6" t="n">
-        <v>769.7947831149792</v>
+        <v>-353.5</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>385.719085636206</v>
       </c>
       <c r="B7" t="n">
-        <v>1398.469085636206</v>
+        <v>-1012.75</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>9.263227631359314</v>
       </c>
       <c r="B8" t="n">
-        <v>-651.9867723686407</v>
+        <v>661.25</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-536.7011229052996</v>
       </c>
       <c r="B9" t="n">
-        <v>-1822.9511229053</v>
+        <v>1286.25</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>296.520816020449</v>
       </c>
       <c r="B10" t="n">
-        <v>70.77081602044905</v>
+        <v>225.75</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>189.2342657760951</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.26573422390493</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>467.5561323942889</v>
       </c>
       <c r="B12" t="n">
-        <v>-488.1938676057111</v>
+        <v>955.75</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>31.90405595046411</v>
       </c>
       <c r="B13" t="n">
-        <v>265.9040559504641</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>-10.00432499550266</v>
       </c>
       <c r="B14" t="n">
-        <v>81.74567500449734</v>
+        <v>-91.75</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>187.0666346542916</v>
       </c>
       <c r="B15" t="n">
-        <v>320.8166346542916</v>
+        <v>-133.75</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>-40.03244121923325</v>
       </c>
       <c r="B16" t="n">
-        <v>299.7175587807668</v>
+        <v>-339.75</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>-103.7714733722684</v>
       </c>
       <c r="B17" t="n">
-        <v>702.9785266277316</v>
+        <v>-806.75</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>-381.0757589298635</v>
       </c>
       <c r="B18" t="n">
-        <v>-10.32575892986347</v>
+        <v>-370.75</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>221.535739030071</v>
       </c>
       <c r="B19" t="n">
-        <v>-1136.964260969929</v>
+        <v>1358.5</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>210.6727971738519</v>
       </c>
       <c r="B20" t="n">
-        <v>802.6727971738519</v>
+        <v>-592</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>89.86805844763256</v>
       </c>
       <c r="B21" t="n">
-        <v>-47.63194155236744</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>25.50645608594255</v>
       </c>
       <c r="B22" t="n">
-        <v>237.2564560859425</v>
+        <v>-211.75</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>-49.96540581231613</v>
       </c>
       <c r="B23" t="n">
-        <v>850.0345941876839</v>
+        <v>-900</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>143.1910348530525</v>
       </c>
       <c r="B24" t="n">
-        <v>157.4410348530525</v>
+        <v>-14.25</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>68.8095739353455</v>
       </c>
       <c r="B25" t="n">
-        <v>308.0595739353455</v>
+        <v>-239.25</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>365.9791957684705</v>
       </c>
       <c r="B26" t="n">
-        <v>737.9791957684705</v>
+        <v>-372</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>84.50828536136089</v>
       </c>
       <c r="B27" t="n">
-        <v>596.2582853613609</v>
+        <v>-511.75</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>-300.7445732462866</v>
       </c>
       <c r="B28" t="n">
-        <v>-954.4945732462866</v>
+        <v>653.75</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>80.24128264363094</v>
       </c>
       <c r="B29" t="n">
-        <v>191.2412826436309</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>275.9428985612224</v>
       </c>
       <c r="B30" t="n">
-        <v>580.1928985612224</v>
+        <v>-304.25</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>261.2917358133271</v>
       </c>
       <c r="B31" t="n">
-        <v>-2042.208264186673</v>
+        <v>2303.5</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>73.80319141067139</v>
       </c>
       <c r="B32" t="n">
-        <v>-472.4468085893286</v>
+        <v>546.25</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>208.0180005115044</v>
       </c>
       <c r="B33" t="n">
-        <v>359.0180005115044</v>
+        <v>-151</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>467.1040792319878</v>
       </c>
       <c r="B34" t="n">
-        <v>-961.6459207680122</v>
+        <v>1428.75</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>161.4427786151942</v>
       </c>
       <c r="B35" t="n">
-        <v>668.1927786151942</v>
+        <v>-506.75</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>491.0601478870005</v>
       </c>
       <c r="B36" t="n">
-        <v>185.0601478870005</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>-314.9689602688259</v>
       </c>
       <c r="B37" t="n">
-        <v>311.7810397311741</v>
+        <v>-626.75</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>210.7248621152918</v>
       </c>
       <c r="B38" t="n">
-        <v>116.2248621152918</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>70.24158651120581</v>
       </c>
       <c r="B39" t="n">
-        <v>-83.00841348879419</v>
+        <v>153.25</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>118.0127387669768</v>
       </c>
       <c r="B40" t="n">
-        <v>-381.9872612330232</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>-550.7993764560354</v>
       </c>
       <c r="B41" t="n">
-        <v>1100.700623543965</v>
+        <v>-1651.5</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>228.2210719750119</v>
       </c>
       <c r="B42" t="n">
-        <v>750.7210719750119</v>
+        <v>-522.5</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>-61.7616793385846</v>
       </c>
       <c r="B43" t="n">
-        <v>-527.2616793385846</v>
+        <v>465.5</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>50.62022685075453</v>
       </c>
       <c r="B44" t="n">
-        <v>-342.6297731492455</v>
+        <v>393.25</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>197.9265971354157</v>
       </c>
       <c r="B45" t="n">
-        <v>-109.3234028645843</v>
+        <v>307.25</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>97.61566292657778</v>
       </c>
       <c r="B46" t="n">
-        <v>415.3656629265778</v>
+        <v>-317.75</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>-526.8431507000785</v>
       </c>
       <c r="B47" t="n">
-        <v>1453.906849299922</v>
+        <v>-1980.75</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>-39.77057583449908</v>
       </c>
       <c r="B48" t="n">
-        <v>-859.5205758344991</v>
+        <v>819.75</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>252.908059907802</v>
       </c>
       <c r="B49" t="n">
-        <v>647.408059907802</v>
+        <v>-394.5</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>233.5353160578827</v>
       </c>
       <c r="B50" t="n">
-        <v>-827.7146839421173</v>
+        <v>1061.25</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>240.2472261516834</v>
       </c>
       <c r="B51" t="n">
-        <v>-1249.752773848317</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>181.4418059587915</v>
       </c>
       <c r="B52" t="n">
-        <v>650.9418059587915</v>
+        <v>-469.5</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>297.5087551719147</v>
       </c>
       <c r="B53" t="n">
-        <v>-26.99124482808531</v>
+        <v>324.5</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>281.9147907070533</v>
       </c>
       <c r="B54" t="n">
-        <v>581.4147907070533</v>
+        <v>-299.5</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>-447.842952148572</v>
       </c>
       <c r="B55" t="n">
-        <v>621.407047851428</v>
+        <v>-1069.25</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>57.86321911318851</v>
       </c>
       <c r="B56" t="n">
-        <v>-806.1367808868115</v>
+        <v>864</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>179.1976039255446</v>
       </c>
       <c r="B57" t="n">
-        <v>-675.8023960744554</v>
+        <v>855</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>330.9908513937214</v>
       </c>
       <c r="B58" t="n">
-        <v>-1748.759148606279</v>
+        <v>2079.75</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>-355.0686901928563</v>
       </c>
       <c r="B59" t="n">
-        <v>700.4313098071437</v>
+        <v>-1055.5</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>233.1918425455173</v>
       </c>
       <c r="B60" t="n">
-        <v>-695.8081574544827</v>
+        <v>929</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>76.09551088476496</v>
       </c>
       <c r="B61" t="n">
-        <v>604.595510884765</v>
+        <v>-528.5</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>-655.195221233404</v>
       </c>
       <c r="B62" t="n">
-        <v>-2468.195221233404</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>256.470341146201</v>
       </c>
       <c r="B63" t="n">
-        <v>383.220341146201</v>
+        <v>-126.75</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>161.0119536760101</v>
       </c>
       <c r="B64" t="n">
-        <v>-487.7380463239899</v>
+        <v>648.75</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>226.8677417131042</v>
       </c>
       <c r="B65" t="n">
-        <v>512.1177417131042</v>
+        <v>-285.25</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>244.1535926743372</v>
       </c>
       <c r="B66" t="n">
-        <v>962.4035926743372</v>
+        <v>-718.25</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>157.0284828526505</v>
       </c>
       <c r="B67" t="n">
-        <v>168.0284828526505</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>222.2407563239419</v>
       </c>
       <c r="B68" t="n">
-        <v>-216.2592436760581</v>
+        <v>438.5</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>238.9521254971281</v>
       </c>
       <c r="B69" t="n">
-        <v>516.4521254971281</v>
+        <v>-277.5</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>50.10323971398407</v>
       </c>
       <c r="B70" t="n">
-        <v>917.8532397139841</v>
+        <v>-867.75</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>202.8984774738532</v>
       </c>
       <c r="B71" t="n">
-        <v>58.89847747385318</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>213.0409006404238</v>
       </c>
       <c r="B72" t="n">
-        <v>-92.20909935957616</v>
+        <v>305.25</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>163.3907268302466</v>
       </c>
       <c r="B73" t="n">
-        <v>227.1407268302466</v>
+        <v>-63.75</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>260.3698302489274</v>
       </c>
       <c r="B74" t="n">
-        <v>806.1198302489274</v>
+        <v>-545.75</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>-150.194825428123</v>
       </c>
       <c r="B75" t="n">
-        <v>279.055174571877</v>
+        <v>-429.25</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>-487.6065449296323</v>
       </c>
       <c r="B76" t="n">
-        <v>587.1434550703677</v>
+        <v>-1074.75</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>106.3307897722696</v>
       </c>
       <c r="B77" t="n">
-        <v>419.0807897722696</v>
+        <v>-312.75</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>300.5069996855706</v>
       </c>
       <c r="B78" t="n">
-        <v>-13.74300031442942</v>
+        <v>314.25</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>379.0243434183838</v>
       </c>
       <c r="B79" t="n">
-        <v>865.2743434183838</v>
+        <v>-486.25</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>211.1294926721237</v>
       </c>
       <c r="B80" t="n">
-        <v>-132.6205073278763</v>
+        <v>343.75</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>249.7457959164249</v>
       </c>
       <c r="B81" t="n">
-        <v>429.4957959164249</v>
+        <v>-179.75</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>64.29372105166567</v>
       </c>
       <c r="B82" t="n">
-        <v>250.2937210516657</v>
+        <v>-186</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>100.8620442670415</v>
       </c>
       <c r="B83" t="n">
-        <v>365.6120442670415</v>
+        <v>-264.75</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>280.3610223848309</v>
       </c>
       <c r="B84" t="n">
-        <v>426.3610223848309</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>-253.583986952748</v>
       </c>
       <c r="B85" t="n">
-        <v>446.166013047252</v>
+        <v>-699.75</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>208.9862708591338</v>
       </c>
       <c r="B86" t="n">
-        <v>-890.2637291408662</v>
+        <v>1099.25</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>-304.8606797488673</v>
       </c>
       <c r="B87" t="n">
-        <v>536.1393202511327</v>
+        <v>-841</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>153.7730663051428</v>
       </c>
       <c r="B88" t="n">
-        <v>-1149.226933694857</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>98.43640888213361</v>
       </c>
       <c r="B89" t="n">
-        <v>-795.3135911178664</v>
+        <v>893.75</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>-628.1064836160358</v>
       </c>
       <c r="B90" t="n">
-        <v>962.6435163839642</v>
+        <v>-1590.75</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>38.57918642547759</v>
       </c>
       <c r="B91" t="n">
-        <v>233.3291864254776</v>
+        <v>-194.75</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>96.77516571939964</v>
       </c>
       <c r="B92" t="n">
-        <v>-319.7248342806004</v>
+        <v>416.5</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>252.0364815617702</v>
       </c>
       <c r="B93" t="n">
-        <v>800.5364815617702</v>
+        <v>-548.5</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>-88.96030608621641</v>
       </c>
       <c r="B94" t="n">
-        <v>1705.039693913784</v>
+        <v>-1794</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>124.8607156806711</v>
       </c>
       <c r="B95" t="n">
-        <v>691.3607156806711</v>
+        <v>-566.5</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>164.0345019270792</v>
       </c>
       <c r="B96" t="n">
-        <v>-795.4654980729208</v>
+        <v>959.5</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>-649.0700954299652</v>
       </c>
       <c r="B97" t="n">
-        <v>-1554.570095429965</v>
+        <v>905.5</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>64.07534733895761</v>
       </c>
       <c r="B98" t="n">
-        <v>763.3253473389576</v>
+        <v>-699.25</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>213.4086880894968</v>
       </c>
       <c r="B99" t="n">
-        <v>661.9086880894968</v>
+        <v>-448.5</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>266.6945155330035</v>
       </c>
       <c r="B100" t="n">
-        <v>-2819.055484466996</v>
+        <v>3085.75</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>138.9855967149551</v>
       </c>
       <c r="B101" t="n">
-        <v>392.4855967149551</v>
+        <v>-253.5</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>-470.1243336233988</v>
       </c>
       <c r="B102" t="n">
-        <v>-451.6243336233988</v>
+        <v>-18.5</v>
       </c>
     </row>
     <row r="103">
@@ -1258,7 +1258,7 @@
         <v>220.4818390108642</v>
       </c>
       <c r="B103" t="n">
-        <v>495.7318390108642</v>
+        <v>-275.25</v>
       </c>
     </row>
     <row r="104">
@@ -1266,7 +1266,7 @@
         <v>11.04050300221098</v>
       </c>
       <c r="B104" t="n">
-        <v>48.79050300221098</v>
+        <v>-37.75</v>
       </c>
     </row>
     <row r="105">
@@ -1274,7 +1274,7 @@
         <v>134.3951172538427</v>
       </c>
       <c r="B105" t="n">
-        <v>-967.3548827461573</v>
+        <v>1101.75</v>
       </c>
     </row>
     <row r="106">
@@ -1282,7 +1282,7 @@
         <v>137.2745426961061</v>
       </c>
       <c r="B106" t="n">
-        <v>208.7745426961061</v>
+        <v>-71.5</v>
       </c>
     </row>
     <row r="107">
@@ -1290,7 +1290,7 @@
         <v>305.9065998294781</v>
       </c>
       <c r="B107" t="n">
-        <v>474.4065998294781</v>
+        <v>-168.5</v>
       </c>
     </row>
     <row r="108">
@@ -1298,7 +1298,7 @@
         <v>36.90247526540787</v>
       </c>
       <c r="B108" t="n">
-        <v>116.9024752654079</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="109">
@@ -1306,7 +1306,7 @@
         <v>135.0332001129561</v>
       </c>
       <c r="B109" t="n">
-        <v>643.2832001129561</v>
+        <v>-508.25</v>
       </c>
     </row>
     <row r="110">
@@ -1314,7 +1314,7 @@
         <v>-245.1497400495871</v>
       </c>
       <c r="B110" t="n">
-        <v>-558.8997400495871</v>
+        <v>313.75</v>
       </c>
     </row>
     <row r="111">
@@ -1322,7 +1322,7 @@
         <v>-578.7601629780326</v>
       </c>
       <c r="B111" t="n">
-        <v>309.4898370219674</v>
+        <v>-888.25</v>
       </c>
     </row>
     <row r="112">
@@ -1330,7 +1330,7 @@
         <v>-62.08439502735337</v>
       </c>
       <c r="B112" t="n">
-        <v>-1933.834395027353</v>
+        <v>1871.75</v>
       </c>
     </row>
     <row r="113">
@@ -1338,7 +1338,7 @@
         <v>191.6131359091809</v>
       </c>
       <c r="B113" t="n">
-        <v>-16.88686409081913</v>
+        <v>208.5</v>
       </c>
     </row>
     <row r="114">
@@ -1346,7 +1346,7 @@
         <v>178.7104898834239</v>
       </c>
       <c r="B114" t="n">
-        <v>930.9604898834239</v>
+        <v>-752.25</v>
       </c>
     </row>
     <row r="115">
@@ -1354,7 +1354,7 @@
         <v>-276.9155555901823</v>
       </c>
       <c r="B115" t="n">
-        <v>-116.6655555901823</v>
+        <v>-160.25</v>
       </c>
     </row>
     <row r="116">
@@ -1362,7 +1362,7 @@
         <v>-49.07497360441153</v>
       </c>
       <c r="B116" t="n">
-        <v>65.67502639558847</v>
+        <v>-114.75</v>
       </c>
     </row>
     <row r="117">
@@ -1370,7 +1370,7 @@
         <v>18.67333453043602</v>
       </c>
       <c r="B117" t="n">
-        <v>-666.826665469564</v>
+        <v>685.5</v>
       </c>
     </row>
     <row r="118">
@@ -1378,7 +1378,7 @@
         <v>280.4629009121752</v>
       </c>
       <c r="B118" t="n">
-        <v>-84.2870990878248</v>
+        <v>364.75</v>
       </c>
     </row>
     <row r="119">
@@ -1386,7 +1386,7 @@
         <v>196.6985092238059</v>
       </c>
       <c r="B119" t="n">
-        <v>98.6985092238059</v>
+        <v>98</v>
       </c>
     </row>
     <row r="120">
@@ -1394,7 +1394,7 @@
         <v>-645.9702891283829</v>
       </c>
       <c r="B120" t="n">
-        <v>-428.2202891283829</v>
+        <v>-217.75</v>
       </c>
     </row>
     <row r="121">
@@ -1402,7 +1402,7 @@
         <v>138.7254245545238</v>
       </c>
       <c r="B121" t="n">
-        <v>477.7254245545238</v>
+        <v>-339</v>
       </c>
     </row>
     <row r="122">
@@ -1410,7 +1410,7 @@
         <v>233.4806226560836</v>
       </c>
       <c r="B122" t="n">
-        <v>-890.7693773439164</v>
+        <v>1124.25</v>
       </c>
     </row>
     <row r="123">
@@ -1418,7 +1418,7 @@
         <v>979.7037504775603</v>
       </c>
       <c r="B123" t="n">
-        <v>-105.2962495224397</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="124">
@@ -1426,7 +1426,7 @@
         <v>-207.0870143901769</v>
       </c>
       <c r="B124" t="n">
-        <v>-778.0870143901769</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125">
@@ -1434,7 +1434,7 @@
         <v>160.435282656458</v>
       </c>
       <c r="B125" t="n">
-        <v>-281.564717343542</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126">
@@ -1442,7 +1442,7 @@
         <v>191.2063868323231</v>
       </c>
       <c r="B126" t="n">
-        <v>-831.2936131676769</v>
+        <v>1022.5</v>
       </c>
     </row>
     <row r="127">
@@ -1450,7 +1450,7 @@
         <v>-459.8879260751465</v>
       </c>
       <c r="B127" t="n">
-        <v>266.3620739248535</v>
+        <v>-726.25</v>
       </c>
     </row>
     <row r="128">
@@ -1458,7 +1458,7 @@
         <v>81.75409829752169</v>
       </c>
       <c r="B128" t="n">
-        <v>263.7540982975217</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="129">
@@ -1466,7 +1466,7 @@
         <v>2.767583160268259</v>
       </c>
       <c r="B129" t="n">
-        <v>184.7675831602683</v>
+        <v>-182</v>
       </c>
     </row>
     <row r="130">
@@ -1474,7 +1474,7 @@
         <v>59.45198401300769</v>
       </c>
       <c r="B130" t="n">
-        <v>76.95198401300769</v>
+        <v>-17.5</v>
       </c>
     </row>
     <row r="131">
@@ -1482,7 +1482,7 @@
         <v>-284.3261401231146</v>
       </c>
       <c r="B131" t="n">
-        <v>-895.8261401231146</v>
+        <v>611.5</v>
       </c>
     </row>
     <row r="132">
@@ -1490,7 +1490,7 @@
         <v>285.9276725193963</v>
       </c>
       <c r="B132" t="n">
-        <v>35.42767251939631</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="133">
@@ -1498,7 +1498,7 @@
         <v>-19.34291675880741</v>
       </c>
       <c r="B133" t="n">
-        <v>372.1570832411926</v>
+        <v>-391.5</v>
       </c>
     </row>
     <row r="134">
@@ -1506,7 +1506,7 @@
         <v>-606.2969324468252</v>
       </c>
       <c r="B134" t="n">
-        <v>905.4530675531748</v>
+        <v>-1511.75</v>
       </c>
     </row>
     <row r="135">
@@ -1514,7 +1514,7 @@
         <v>251.3254333390672</v>
       </c>
       <c r="B135" t="n">
-        <v>399.0754333390672</v>
+        <v>-147.75</v>
       </c>
     </row>
     <row r="136">
@@ -1522,7 +1522,7 @@
         <v>-62.36704868895549</v>
       </c>
       <c r="B136" t="n">
-        <v>804.6329513110445</v>
+        <v>-867</v>
       </c>
     </row>
     <row r="137">
@@ -1530,7 +1530,7 @@
         <v>182.0177376003224</v>
       </c>
       <c r="B137" t="n">
-        <v>170.5177376003224</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="138">
@@ -1538,7 +1538,7 @@
         <v>109.1598436887709</v>
       </c>
       <c r="B138" t="n">
-        <v>-377.8401563112291</v>
+        <v>487</v>
       </c>
     </row>
     <row r="139">
@@ -1546,7 +1546,7 @@
         <v>176.5584802426253</v>
       </c>
       <c r="B139" t="n">
-        <v>-146.6915197573747</v>
+        <v>323.25</v>
       </c>
     </row>
     <row r="140">
@@ -1554,7 +1554,7 @@
         <v>279.9584523584208</v>
       </c>
       <c r="B140" t="n">
-        <v>167.2084523584208</v>
+        <v>112.75</v>
       </c>
     </row>
     <row r="141">
@@ -1562,7 +1562,7 @@
         <v>233.4700950404964</v>
       </c>
       <c r="B141" t="n">
-        <v>203.2200950404964</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="142">
@@ -1570,7 +1570,7 @@
         <v>139.8334527292147</v>
       </c>
       <c r="B142" t="n">
-        <v>170.5834527292147</v>
+        <v>-30.75</v>
       </c>
     </row>
     <row r="143">
@@ -1578,7 +1578,7 @@
         <v>217.7058570123301</v>
       </c>
       <c r="B143" t="n">
-        <v>-142.5441429876699</v>
+        <v>360.25</v>
       </c>
     </row>
     <row r="144">
@@ -1586,7 +1586,7 @@
         <v>220.932169239305</v>
       </c>
       <c r="B144" t="n">
-        <v>563.182169239305</v>
+        <v>-342.25</v>
       </c>
     </row>
     <row r="145">
@@ -1594,7 +1594,7 @@
         <v>-14.41516089356804</v>
       </c>
       <c r="B145" t="n">
-        <v>-508.415160893568</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146">
@@ -1602,7 +1602,7 @@
         <v>111.4866344841736</v>
       </c>
       <c r="B146" t="n">
-        <v>216.2366344841736</v>
+        <v>-104.75</v>
       </c>
     </row>
     <row r="147">
@@ -1610,7 +1610,7 @@
         <v>195.949899592124</v>
       </c>
       <c r="B147" t="n">
-        <v>558.699899592124</v>
+        <v>-362.75</v>
       </c>
     </row>
     <row r="148">
@@ -1618,7 +1618,7 @@
         <v>236.870871318029</v>
       </c>
       <c r="B148" t="n">
-        <v>-921.629128681971</v>
+        <v>1158.5</v>
       </c>
     </row>
     <row r="149">
@@ -1626,7 +1626,7 @@
         <v>-805.7723696118564</v>
       </c>
       <c r="B149" t="n">
-        <v>1217.227630388144</v>
+        <v>-2023</v>
       </c>
     </row>
     <row r="150">
@@ -1634,7 +1634,7 @@
         <v>166.3078841860521</v>
       </c>
       <c r="B150" t="n">
-        <v>595.3078841860521</v>
+        <v>-429</v>
       </c>
     </row>
     <row r="151">
@@ -1642,7 +1642,7 @@
         <v>-537.9647878006006</v>
       </c>
       <c r="B151" t="n">
-        <v>1158.535212199399</v>
+        <v>-1696.5</v>
       </c>
     </row>
     <row r="152">
@@ -1650,7 +1650,7 @@
         <v>-435.8262960429688</v>
       </c>
       <c r="B152" t="n">
-        <v>-287.3262960429688</v>
+        <v>-148.5</v>
       </c>
     </row>
     <row r="153">
@@ -1658,7 +1658,7 @@
         <v>7.811912743617768</v>
       </c>
       <c r="B153" t="n">
-        <v>767.0619127436178</v>
+        <v>-759.25</v>
       </c>
     </row>
     <row r="154">
@@ -1666,7 +1666,7 @@
         <v>182.0461191845297</v>
       </c>
       <c r="B154" t="n">
-        <v>1023.54611918453</v>
+        <v>-841.5</v>
       </c>
     </row>
     <row r="155">
@@ -1674,7 +1674,7 @@
         <v>164.7118018904846</v>
       </c>
       <c r="B155" t="n">
-        <v>-69.03819810951541</v>
+        <v>233.75</v>
       </c>
     </row>
     <row r="156">
@@ -1682,7 +1682,7 @@
         <v>187.4318569918416</v>
       </c>
       <c r="B156" t="n">
-        <v>-1005.318143008158</v>
+        <v>1192.75</v>
       </c>
     </row>
     <row r="157">
@@ -1690,7 +1690,7 @@
         <v>201.2623149251442</v>
       </c>
       <c r="B157" t="n">
-        <v>73.76231492514421</v>
+        <v>127.5</v>
       </c>
     </row>
     <row r="158">
@@ -1698,7 +1698,7 @@
         <v>285.7597922859662</v>
       </c>
       <c r="B158" t="n">
-        <v>-868.2402077140338</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="159">
@@ -1706,7 +1706,7 @@
         <v>-419.5080160486</v>
       </c>
       <c r="B159" t="n">
-        <v>929.7419839514</v>
+        <v>-1349.25</v>
       </c>
     </row>
     <row r="160">
@@ -1714,7 +1714,7 @@
         <v>27.52581234548694</v>
       </c>
       <c r="B160" t="n">
-        <v>-38.47418765451306</v>
+        <v>66</v>
       </c>
     </row>
     <row r="161">
@@ -1722,7 +1722,7 @@
         <v>-17.10373581841372</v>
       </c>
       <c r="B161" t="n">
-        <v>410.8962641815863</v>
+        <v>-428</v>
       </c>
     </row>
     <row r="162">
@@ -1730,7 +1730,7 @@
         <v>85.04653262746655</v>
       </c>
       <c r="B162" t="n">
-        <v>179.0465326274665</v>
+        <v>-94</v>
       </c>
     </row>
     <row r="163">
@@ -1738,7 +1738,7 @@
         <v>-284.4748705295037</v>
       </c>
       <c r="B163" t="n">
-        <v>547.2751294704963</v>
+        <v>-831.75</v>
       </c>
     </row>
     <row r="164">
@@ -1746,7 +1746,7 @@
         <v>124.8646295806565</v>
       </c>
       <c r="B164" t="n">
-        <v>618.8646295806565</v>
+        <v>-494</v>
       </c>
     </row>
     <row r="165">
@@ -1754,7 +1754,7 @@
         <v>134.4169812553988</v>
       </c>
       <c r="B165" t="n">
-        <v>-466.8330187446012</v>
+        <v>601.25</v>
       </c>
     </row>
     <row r="166">
@@ -1762,7 +1762,7 @@
         <v>-253.9294772492312</v>
       </c>
       <c r="B166" t="n">
-        <v>2639.320522750769</v>
+        <v>-2893.25</v>
       </c>
     </row>
     <row r="167">
@@ -1770,7 +1770,7 @@
         <v>609.4204525443988</v>
       </c>
       <c r="B167" t="n">
-        <v>284.9204525443988</v>
+        <v>324.5</v>
       </c>
     </row>
     <row r="168">
@@ -1778,7 +1778,7 @@
         <v>164.0263831882014</v>
       </c>
       <c r="B168" t="n">
-        <v>-14.97361681179859</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169">
@@ -1786,7 +1786,7 @@
         <v>39.05713668508122</v>
       </c>
       <c r="B169" t="n">
-        <v>958.0571366850812</v>
+        <v>-919</v>
       </c>
     </row>
     <row r="170">
@@ -1794,7 +1794,7 @@
         <v>213.6900606871419</v>
       </c>
       <c r="B170" t="n">
-        <v>666.6900606871419</v>
+        <v>-453</v>
       </c>
     </row>
     <row r="171">
@@ -1802,7 +1802,7 @@
         <v>204.3258985674742</v>
       </c>
       <c r="B171" t="n">
-        <v>463.3258985674742</v>
+        <v>-259</v>
       </c>
     </row>
     <row r="172">
@@ -1810,7 +1810,7 @@
         <v>180.4703764244821</v>
       </c>
       <c r="B172" t="n">
-        <v>392.4703764244821</v>
+        <v>-212</v>
       </c>
     </row>
     <row r="173">
@@ -1818,7 +1818,7 @@
         <v>356.1299740972183</v>
       </c>
       <c r="B173" t="n">
-        <v>590.3799740972183</v>
+        <v>-234.25</v>
       </c>
     </row>
     <row r="174">
@@ -1826,7 +1826,7 @@
         <v>51.98148472777075</v>
       </c>
       <c r="B174" t="n">
-        <v>430.2314847277707</v>
+        <v>-378.25</v>
       </c>
     </row>
     <row r="175">
@@ -1834,7 +1834,7 @@
         <v>228.3070468690203</v>
       </c>
       <c r="B175" t="n">
-        <v>390.5570468690203</v>
+        <v>-162.25</v>
       </c>
     </row>
     <row r="176">
@@ -1842,7 +1842,7 @@
         <v>-549.6264151805913</v>
       </c>
       <c r="B176" t="n">
-        <v>683.6235848194087</v>
+        <v>-1233.25</v>
       </c>
     </row>
     <row r="177">
@@ -1850,7 +1850,7 @@
         <v>-601.7954169285194</v>
       </c>
       <c r="B177" t="n">
-        <v>509.4545830714806</v>
+        <v>-1111.25</v>
       </c>
     </row>
     <row r="178">
@@ -1858,7 +1858,7 @@
         <v>138.7193269402361</v>
       </c>
       <c r="B178" t="n">
-        <v>-228.2806730597639</v>
+        <v>367</v>
       </c>
     </row>
     <row r="179">
@@ -1866,7 +1866,7 @@
         <v>266.7530783217398</v>
       </c>
       <c r="B179" t="n">
-        <v>-83.24692167826015</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180">
@@ -1874,7 +1874,7 @@
         <v>298.4690004029247</v>
       </c>
       <c r="B180" t="n">
-        <v>-54.53099959707527</v>
+        <v>353</v>
       </c>
     </row>
     <row r="181">
@@ -1882,7 +1882,7 @@
         <v>284.0639321241828</v>
       </c>
       <c r="B181" t="n">
-        <v>54.06393212418277</v>
+        <v>230</v>
       </c>
     </row>
     <row r="182">
@@ -1890,7 +1890,7 @@
         <v>-506.9721158885052</v>
       </c>
       <c r="B182" t="n">
-        <v>-1623.722115888505</v>
+        <v>1116.75</v>
       </c>
     </row>
     <row r="183">
@@ -1898,7 +1898,7 @@
         <v>94.27249559441736</v>
       </c>
       <c r="B183" t="n">
-        <v>-496.9775044055826</v>
+        <v>591.25</v>
       </c>
     </row>
     <row r="184">
@@ -1906,7 +1906,7 @@
         <v>173.9234091554141</v>
       </c>
       <c r="B184" t="n">
-        <v>803.9234091554141</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="185">
@@ -1914,7 +1914,7 @@
         <v>-674.2589904670922</v>
       </c>
       <c r="B185" t="n">
-        <v>754.4910095329078</v>
+        <v>-1428.75</v>
       </c>
     </row>
     <row r="186">
@@ -1922,7 +1922,7 @@
         <v>164.013951956938</v>
       </c>
       <c r="B186" t="n">
-        <v>222.513951956938</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="187">
@@ -1930,7 +1930,7 @@
         <v>-145.8133086329741</v>
       </c>
       <c r="B187" t="n">
-        <v>-124.3133086329741</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="188">
@@ -1938,7 +1938,7 @@
         <v>-491.4712809894745</v>
       </c>
       <c r="B188" t="n">
-        <v>-6482.471280989475</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="189">
@@ -1946,7 +1946,7 @@
         <v>-989.6774279530978</v>
       </c>
       <c r="B189" t="n">
-        <v>1020.072572046902</v>
+        <v>-2009.75</v>
       </c>
     </row>
     <row r="190">
@@ -1954,7 +1954,7 @@
         <v>-777.9837696594321</v>
       </c>
       <c r="B190" t="n">
-        <v>786.2662303405679</v>
+        <v>-1564.25</v>
       </c>
     </row>
     <row r="191">
@@ -1962,7 +1962,7 @@
         <v>257.228501624353</v>
       </c>
       <c r="B191" t="n">
-        <v>473.728501624353</v>
+        <v>-216.5</v>
       </c>
     </row>
     <row r="192">
@@ -1970,7 +1970,7 @@
         <v>-2.338924813433891</v>
       </c>
       <c r="B192" t="n">
-        <v>147.6610751865661</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="193">
@@ -1978,7 +1978,7 @@
         <v>-24.61674239675648</v>
       </c>
       <c r="B193" t="n">
-        <v>182.8832576032435</v>
+        <v>-207.5</v>
       </c>
     </row>
     <row r="194">
@@ -1986,7 +1986,7 @@
         <v>-715.775215357556</v>
       </c>
       <c r="B194" t="n">
-        <v>-562.275215357556</v>
+        <v>-153.5</v>
       </c>
     </row>
     <row r="195">
@@ -1994,7 +1994,7 @@
         <v>185.2939091085734</v>
       </c>
       <c r="B195" t="n">
-        <v>298.5439091085734</v>
+        <v>-113.25</v>
       </c>
     </row>
     <row r="196">
@@ -2002,7 +2002,7 @@
         <v>304.232582421675</v>
       </c>
       <c r="B196" t="n">
-        <v>-151.267417578325</v>
+        <v>455.5</v>
       </c>
     </row>
     <row r="197">
@@ -2010,7 +2010,7 @@
         <v>-468.5489637698092</v>
       </c>
       <c r="B197" t="n">
-        <v>938.9510362301908</v>
+        <v>-1407.5</v>
       </c>
     </row>
     <row r="198">
@@ -2018,7 +2018,7 @@
         <v>137.1806165899635</v>
       </c>
       <c r="B198" t="n">
-        <v>-162.8193834100365</v>
+        <v>300</v>
       </c>
     </row>
     <row r="199">
@@ -2026,7 +2026,7 @@
         <v>138.3538278863036</v>
       </c>
       <c r="B199" t="n">
-        <v>309.8538278863036</v>
+        <v>-171.5</v>
       </c>
     </row>
     <row r="200">
@@ -2034,7 +2034,7 @@
         <v>-607.8992854743699</v>
       </c>
       <c r="B200" t="n">
-        <v>1129.85071452563</v>
+        <v>-1737.75</v>
       </c>
     </row>
     <row r="201">
@@ -2042,7 +2042,7 @@
         <v>-585.8954794583933</v>
       </c>
       <c r="B201" t="n">
-        <v>-1353.395479458393</v>
+        <v>767.5</v>
       </c>
     </row>
     <row r="202">
@@ -2050,7 +2050,7 @@
         <v>58.76765886980326</v>
       </c>
       <c r="B202" t="n">
-        <v>-13.73234113019674</v>
+        <v>72.5</v>
       </c>
     </row>
     <row r="203">
@@ -2058,7 +2058,7 @@
         <v>-47.94230454585352</v>
       </c>
       <c r="B203" t="n">
-        <v>436.3076954541465</v>
+        <v>-484.25</v>
       </c>
     </row>
     <row r="204">
@@ -2066,7 +2066,7 @@
         <v>-559.0875693537175</v>
       </c>
       <c r="B204" t="n">
-        <v>682.1624306462825</v>
+        <v>-1241.25</v>
       </c>
     </row>
     <row r="205">
@@ -2074,7 +2074,7 @@
         <v>142.461193887629</v>
       </c>
       <c r="B205" t="n">
-        <v>178.961193887629</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="206">
@@ -2082,7 +2082,7 @@
         <v>314.9423913469611</v>
       </c>
       <c r="B206" t="n">
-        <v>629.1923913469611</v>
+        <v>-314.25</v>
       </c>
     </row>
     <row r="207">
@@ -2090,7 +2090,7 @@
         <v>362.7933063907535</v>
       </c>
       <c r="B207" t="n">
-        <v>777.5433063907535</v>
+        <v>-414.75</v>
       </c>
     </row>
     <row r="208">
@@ -2098,7 +2098,7 @@
         <v>267.5382818274425</v>
       </c>
       <c r="B208" t="n">
-        <v>941.7882818274425</v>
+        <v>-674.25</v>
       </c>
     </row>
     <row r="209">
@@ -2106,7 +2106,7 @@
         <v>780.7310497722756</v>
       </c>
       <c r="B209" t="n">
-        <v>2636.731049772276</v>
+        <v>-1856</v>
       </c>
     </row>
     <row r="210">
@@ -2114,7 +2114,7 @@
         <v>209.4221670646131</v>
       </c>
       <c r="B210" t="n">
-        <v>106.1721670646131</v>
+        <v>103.25</v>
       </c>
     </row>
     <row r="211">
@@ -2122,7 +2122,7 @@
         <v>48.26103599215469</v>
       </c>
       <c r="B211" t="n">
-        <v>-376.2389640078453</v>
+        <v>424.5</v>
       </c>
     </row>
     <row r="212">
@@ -2130,7 +2130,7 @@
         <v>-596.5896211623501</v>
       </c>
       <c r="B212" t="n">
-        <v>726.6603788376499</v>
+        <v>-1323.25</v>
       </c>
     </row>
     <row r="213">
@@ -2138,7 +2138,7 @@
         <v>-592.2004551152855</v>
       </c>
       <c r="B213" t="n">
-        <v>789.2995448847145</v>
+        <v>-1381.5</v>
       </c>
     </row>
     <row r="214">
@@ -2146,7 +2146,7 @@
         <v>-324.8848693854065</v>
       </c>
       <c r="B214" t="n">
-        <v>766.6151306145935</v>
+        <v>-1091.5</v>
       </c>
     </row>
     <row r="215">
@@ -2154,7 +2154,7 @@
         <v>-339.902124503983</v>
       </c>
       <c r="B215" t="n">
-        <v>1204.347875496017</v>
+        <v>-1544.25</v>
       </c>
     </row>
     <row r="216">
@@ -2162,7 +2162,7 @@
         <v>38.66390986895681</v>
       </c>
       <c r="B216" t="n">
-        <v>182.6639098689568</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="217">
@@ -2170,7 +2170,7 @@
         <v>184.9332534755291</v>
       </c>
       <c r="B217" t="n">
-        <v>-479.8167465244709</v>
+        <v>664.75</v>
       </c>
     </row>
     <row r="218">
@@ -2178,7 +2178,7 @@
         <v>210.8274610268641</v>
       </c>
       <c r="B218" t="n">
-        <v>428.5774610268641</v>
+        <v>-217.75</v>
       </c>
     </row>
     <row r="219">
@@ -2186,7 +2186,7 @@
         <v>135.6622176433931</v>
       </c>
       <c r="B219" t="n">
-        <v>-438.8377823566069</v>
+        <v>574.5</v>
       </c>
     </row>
     <row r="220">
@@ -2194,7 +2194,7 @@
         <v>99.73009328748662</v>
       </c>
       <c r="B220" t="n">
-        <v>765.9800932874866</v>
+        <v>-666.25</v>
       </c>
     </row>
     <row r="221">
@@ -2202,7 +2202,7 @@
         <v>130.4457708139212</v>
       </c>
       <c r="B221" t="n">
-        <v>-385.3042291860788</v>
+        <v>515.75</v>
       </c>
     </row>
     <row r="222">
@@ -2210,7 +2210,7 @@
         <v>-743.535244147251</v>
       </c>
       <c r="B222" t="n">
-        <v>947.464755852749</v>
+        <v>-1691</v>
       </c>
     </row>
     <row r="223">
@@ -2218,7 +2218,7 @@
         <v>119.146057327924</v>
       </c>
       <c r="B223" t="n">
-        <v>290.396057327924</v>
+        <v>-171.25</v>
       </c>
     </row>
     <row r="224">
@@ -2226,7 +2226,7 @@
         <v>81.74502375098086</v>
       </c>
       <c r="B224" t="n">
-        <v>193.2450237509809</v>
+        <v>-111.5</v>
       </c>
     </row>
     <row r="225">
@@ -2234,7 +2234,7 @@
         <v>-15.16040798126016</v>
       </c>
       <c r="B225" t="n">
-        <v>-857.6604079812602</v>
+        <v>842.5</v>
       </c>
     </row>
     <row r="226">
@@ -2242,7 +2242,7 @@
         <v>-305.2420615115529</v>
       </c>
       <c r="B226" t="n">
-        <v>672.7579384884471</v>
+        <v>-978</v>
       </c>
     </row>
     <row r="227">
@@ -2250,7 +2250,7 @@
         <v>-1011.354112463144</v>
       </c>
       <c r="B227" t="n">
-        <v>891.6458875368555</v>
+        <v>-1903</v>
       </c>
     </row>
     <row r="228">
@@ -2258,7 +2258,7 @@
         <v>-103.5311135201462</v>
       </c>
       <c r="B228" t="n">
-        <v>275.9688864798538</v>
+        <v>-379.5</v>
       </c>
     </row>
     <row r="229">
@@ -2266,7 +2266,7 @@
         <v>174.9763949051902</v>
       </c>
       <c r="B229" t="n">
-        <v>501.9763949051902</v>
+        <v>-327</v>
       </c>
     </row>
     <row r="230">
@@ -2274,7 +2274,7 @@
         <v>307.094769355946</v>
       </c>
       <c r="B230" t="n">
-        <v>115.094769355946</v>
+        <v>192</v>
       </c>
     </row>
     <row r="231">
@@ -2282,7 +2282,7 @@
         <v>-126.3260088264502</v>
       </c>
       <c r="B231" t="n">
-        <v>-800.0760088264502</v>
+        <v>673.75</v>
       </c>
     </row>
     <row r="232">
@@ -2290,7 +2290,7 @@
         <v>141.590845487774</v>
       </c>
       <c r="B232" t="n">
-        <v>-192.659154512226</v>
+        <v>334.25</v>
       </c>
     </row>
     <row r="233">
@@ -2298,7 +2298,7 @@
         <v>76.11111522229987</v>
       </c>
       <c r="B233" t="n">
-        <v>362.6111152222999</v>
+        <v>-286.5</v>
       </c>
     </row>
     <row r="234">
@@ -2306,7 +2306,7 @@
         <v>0.9505960998499177</v>
       </c>
       <c r="B234" t="n">
-        <v>-1221.54940390015</v>
+        <v>1222.5</v>
       </c>
     </row>
     <row r="235">
@@ -2314,7 +2314,7 @@
         <v>101.1418970148072</v>
       </c>
       <c r="B235" t="n">
-        <v>725.3918970148072</v>
+        <v>-624.25</v>
       </c>
     </row>
     <row r="236">
@@ -2322,7 +2322,7 @@
         <v>135.8497888675164</v>
       </c>
       <c r="B236" t="n">
-        <v>514.8497888675164</v>
+        <v>-379</v>
       </c>
     </row>
     <row r="237">
@@ -2330,7 +2330,7 @@
         <v>-595.5604270057887</v>
       </c>
       <c r="B237" t="n">
-        <v>506.4395729942113</v>
+        <v>-1102</v>
       </c>
     </row>
     <row r="238">
@@ -2338,7 +2338,7 @@
         <v>35.46626197118812</v>
       </c>
       <c r="B238" t="n">
-        <v>177.9662619711881</v>
+        <v>-142.5</v>
       </c>
     </row>
     <row r="239">
@@ -2346,7 +2346,7 @@
         <v>307.2554708287967</v>
       </c>
       <c r="B239" t="n">
-        <v>87.00547082879666</v>
+        <v>220.25</v>
       </c>
     </row>
     <row r="240">
@@ -2354,7 +2354,7 @@
         <v>113.3492575045286</v>
       </c>
       <c r="B240" t="n">
-        <v>11.34925750452862</v>
+        <v>102</v>
       </c>
     </row>
     <row r="241">
@@ -2362,7 +2362,7 @@
         <v>175.0804903010558</v>
       </c>
       <c r="B241" t="n">
-        <v>164.8304903010558</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="242">
@@ -2370,7 +2370,7 @@
         <v>246.2842818966993</v>
       </c>
       <c r="B242" t="n">
-        <v>-127.4657181033007</v>
+        <v>373.75</v>
       </c>
     </row>
     <row r="243">
@@ -2378,7 +2378,7 @@
         <v>-322.4376115817606</v>
       </c>
       <c r="B243" t="n">
-        <v>447.8123884182394</v>
+        <v>-770.25</v>
       </c>
     </row>
     <row r="244">
@@ -2386,7 +2386,7 @@
         <v>-235.6379108276871</v>
       </c>
       <c r="B244" t="n">
-        <v>191.3620891723129</v>
+        <v>-427</v>
       </c>
     </row>
     <row r="245">
@@ -2394,7 +2394,7 @@
         <v>334.1222275452512</v>
       </c>
       <c r="B245" t="n">
-        <v>934.8722275452512</v>
+        <v>-600.75</v>
       </c>
     </row>
     <row r="246">
@@ -2402,7 +2402,7 @@
         <v>38.05945591143416</v>
       </c>
       <c r="B246" t="n">
-        <v>110.8094559114342</v>
+        <v>-72.75</v>
       </c>
     </row>
     <row r="247">
@@ -2410,7 +2410,7 @@
         <v>240.2674465802282</v>
       </c>
       <c r="B247" t="n">
-        <v>247.7674465802282</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="248">
@@ -2418,7 +2418,7 @@
         <v>319.7753516803191</v>
       </c>
       <c r="B248" t="n">
-        <v>-213.7246483196809</v>
+        <v>533.5</v>
       </c>
     </row>
     <row r="249">
@@ -2426,7 +2426,7 @@
         <v>359.1925425322693</v>
       </c>
       <c r="B249" t="n">
-        <v>121.9425425322693</v>
+        <v>237.25</v>
       </c>
     </row>
     <row r="250">
@@ -2434,7 +2434,7 @@
         <v>-98.10559720760853</v>
       </c>
       <c r="B250" t="n">
-        <v>303.1444027923915</v>
+        <v>-401.25</v>
       </c>
     </row>
     <row r="251">
@@ -2442,7 +2442,7 @@
         <v>-567.6131778044469</v>
       </c>
       <c r="B251" t="n">
-        <v>875.8868221955531</v>
+        <v>-1443.5</v>
       </c>
     </row>
     <row r="252">
@@ -2450,7 +2450,7 @@
         <v>289.2172165851089</v>
       </c>
       <c r="B252" t="n">
-        <v>-3142.532783414891</v>
+        <v>3431.75</v>
       </c>
     </row>
     <row r="253">
@@ -2458,7 +2458,7 @@
         <v>151.339943107918</v>
       </c>
       <c r="B253" t="n">
-        <v>257.089943107918</v>
+        <v>-105.75</v>
       </c>
     </row>
     <row r="254">
@@ -2466,7 +2466,7 @@
         <v>304.5654765235236</v>
       </c>
       <c r="B254" t="n">
-        <v>674.0654765235236</v>
+        <v>-369.5</v>
       </c>
     </row>
     <row r="255">
@@ -2474,7 +2474,7 @@
         <v>227.8268083430615</v>
       </c>
       <c r="B255" t="n">
-        <v>-73.67319165693846</v>
+        <v>301.5</v>
       </c>
     </row>
     <row r="256">
@@ -2482,7 +2482,7 @@
         <v>216.8772683821348</v>
       </c>
       <c r="B256" t="n">
-        <v>671.1272683821348</v>
+        <v>-454.25</v>
       </c>
     </row>
     <row r="257">
@@ -2490,7 +2490,7 @@
         <v>117.9084727909392</v>
       </c>
       <c r="B257" t="n">
-        <v>97.15847279093916</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="258">
@@ -2498,7 +2498,7 @@
         <v>234.4961805207181</v>
       </c>
       <c r="B258" t="n">
-        <v>326.9961805207181</v>
+        <v>-92.5</v>
       </c>
     </row>
     <row r="259">
@@ -2506,7 +2506,7 @@
         <v>-198.1707056268067</v>
       </c>
       <c r="B259" t="n">
-        <v>1124.829294373193</v>
+        <v>-1323</v>
       </c>
     </row>
     <row r="260">
@@ -2514,7 +2514,7 @@
         <v>279.9509106066005</v>
       </c>
       <c r="B260" t="n">
-        <v>4.700910606600473</v>
+        <v>275.25</v>
       </c>
     </row>
     <row r="261">
@@ -2522,7 +2522,7 @@
         <v>513.4533690996305</v>
       </c>
       <c r="B261" t="n">
-        <v>451.2033690996305</v>
+        <v>62.25</v>
       </c>
     </row>
     <row r="262">
@@ -2530,7 +2530,7 @@
         <v>239.5790733407127</v>
       </c>
       <c r="B262" t="n">
-        <v>-145.6709266592873</v>
+        <v>385.25</v>
       </c>
     </row>
     <row r="263">
@@ -2538,7 +2538,7 @@
         <v>-281.5515609928416</v>
       </c>
       <c r="B263" t="n">
-        <v>517.9484390071584</v>
+        <v>-799.5</v>
       </c>
     </row>
     <row r="264">
@@ -2546,7 +2546,7 @@
         <v>-300.2538032323</v>
       </c>
       <c r="B264" t="n">
-        <v>804.9961967677</v>
+        <v>-1105.25</v>
       </c>
     </row>
     <row r="265">
@@ -2554,7 +2554,7 @@
         <v>-1607.062373415356</v>
       </c>
       <c r="B265" t="n">
-        <v>1136.187626584644</v>
+        <v>-2743.25</v>
       </c>
     </row>
     <row r="266">
@@ -2562,7 +2562,7 @@
         <v>-389.5757540856764</v>
       </c>
       <c r="B266" t="n">
-        <v>-1026.075754085676</v>
+        <v>636.5</v>
       </c>
     </row>
     <row r="267">
@@ -2570,7 +2570,7 @@
         <v>299.8778790094545</v>
       </c>
       <c r="B267" t="n">
-        <v>316.1278790094545</v>
+        <v>-16.25</v>
       </c>
     </row>
     <row r="268">
@@ -2578,7 +2578,7 @@
         <v>255.1743861902221</v>
       </c>
       <c r="B268" t="n">
-        <v>254.9243861902221</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="269">
@@ -2586,7 +2586,7 @@
         <v>-422.1963037040741</v>
       </c>
       <c r="B269" t="n">
-        <v>76.30369629592587</v>
+        <v>-498.5</v>
       </c>
     </row>
     <row r="270">
@@ -2594,7 +2594,7 @@
         <v>78.68903282429483</v>
       </c>
       <c r="B270" t="n">
-        <v>-179.0609671757052</v>
+        <v>257.75</v>
       </c>
     </row>
     <row r="271">
@@ -2602,7 +2602,7 @@
         <v>145.1965275062654</v>
       </c>
       <c r="B271" t="n">
-        <v>-189.3034724937346</v>
+        <v>334.5</v>
       </c>
     </row>
     <row r="272">
@@ -2610,7 +2610,7 @@
         <v>204.4864498035457</v>
       </c>
       <c r="B272" t="n">
-        <v>340.7364498035457</v>
+        <v>-136.25</v>
       </c>
     </row>
     <row r="273">
@@ -2618,7 +2618,7 @@
         <v>280.5025535299746</v>
       </c>
       <c r="B273" t="n">
-        <v>384.5025535299746</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="274">
@@ -2626,7 +2626,7 @@
         <v>50.01040947963077</v>
       </c>
       <c r="B274" t="n">
-        <v>325.5104094796308</v>
+        <v>-275.5</v>
       </c>
     </row>
     <row r="275">
@@ -2634,7 +2634,7 @@
         <v>29.03214031655614</v>
       </c>
       <c r="B275" t="n">
-        <v>213.5321403165561</v>
+        <v>-184.5</v>
       </c>
     </row>
     <row r="276">
@@ -2642,7 +2642,7 @@
         <v>485.3728261322433</v>
       </c>
       <c r="B276" t="n">
-        <v>1149.122826132243</v>
+        <v>-663.75</v>
       </c>
     </row>
     <row r="277">
@@ -2650,7 +2650,7 @@
         <v>190.6819136392287</v>
       </c>
       <c r="B277" t="n">
-        <v>321.1819136392287</v>
+        <v>-130.5</v>
       </c>
     </row>
     <row r="278">
@@ -2658,7 +2658,7 @@
         <v>-1345.575897194445</v>
       </c>
       <c r="B278" t="n">
-        <v>-607.5758971944449</v>
+        <v>-738</v>
       </c>
     </row>
     <row r="279">
@@ -2666,7 +2666,7 @@
         <v>5.359709105011689</v>
       </c>
       <c r="B279" t="n">
-        <v>749.6097091050117</v>
+        <v>-744.25</v>
       </c>
     </row>
     <row r="280">
@@ -2674,7 +2674,7 @@
         <v>303.9601552109466</v>
       </c>
       <c r="B280" t="n">
-        <v>272.7101552109466</v>
+        <v>31.25</v>
       </c>
     </row>
     <row r="281">
@@ -2682,7 +2682,7 @@
         <v>301.7534802635116</v>
       </c>
       <c r="B281" t="n">
-        <v>54.25348026351162</v>
+        <v>247.5</v>
       </c>
     </row>
     <row r="282">
@@ -2690,7 +2690,7 @@
         <v>-302.1337237868861</v>
       </c>
       <c r="B282" t="n">
-        <v>342.3662762131139</v>
+        <v>-644.5</v>
       </c>
     </row>
     <row r="283">
@@ -2698,7 +2698,7 @@
         <v>89.76102216375068</v>
       </c>
       <c r="B283" t="n">
-        <v>54.76102216375068</v>
+        <v>35</v>
       </c>
     </row>
     <row r="284">
@@ -2706,7 +2706,7 @@
         <v>122.0048002767551</v>
       </c>
       <c r="B284" t="n">
-        <v>132.0048002767551</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="285">
@@ -2714,7 +2714,7 @@
         <v>172.4011697044713</v>
       </c>
       <c r="B285" t="n">
-        <v>51.90116970447127</v>
+        <v>120.5</v>
       </c>
     </row>
     <row r="286">
@@ -2722,7 +2722,7 @@
         <v>537.9736120520615</v>
       </c>
       <c r="B286" t="n">
-        <v>319.4736120520615</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="287">
@@ -2730,7 +2730,7 @@
         <v>258.9802625913003</v>
       </c>
       <c r="B287" t="n">
-        <v>543.2302625913003</v>
+        <v>-284.25</v>
       </c>
     </row>
     <row r="288">
@@ -2738,7 +2738,7 @@
         <v>314.1636573209377</v>
       </c>
       <c r="B288" t="n">
-        <v>-36.83634267906234</v>
+        <v>351</v>
       </c>
     </row>
     <row r="289">
@@ -2746,7 +2746,7 @@
         <v>209.2387974196338</v>
       </c>
       <c r="B289" t="n">
-        <v>466.4887974196338</v>
+        <v>-257.25</v>
       </c>
     </row>
     <row r="290">
@@ -2754,7 +2754,7 @@
         <v>188.1718587833248</v>
       </c>
       <c r="B290" t="n">
-        <v>-1287.578141216675</v>
+        <v>1475.75</v>
       </c>
     </row>
     <row r="291">
@@ -2762,7 +2762,7 @@
         <v>282.827844766569</v>
       </c>
       <c r="B291" t="n">
-        <v>878.827844766569</v>
+        <v>-596</v>
       </c>
     </row>
     <row r="292">
@@ -2770,7 +2770,7 @@
         <v>269.853349867422</v>
       </c>
       <c r="B292" t="n">
-        <v>-845.146650132578</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="293">
@@ -2778,7 +2778,7 @@
         <v>-150.3834747486017</v>
       </c>
       <c r="B293" t="n">
-        <v>1039.866525251398</v>
+        <v>-1190.25</v>
       </c>
     </row>
     <row r="294">
@@ -2786,7 +2786,7 @@
         <v>363.5017580242441</v>
       </c>
       <c r="B294" t="n">
-        <v>116.2517580242441</v>
+        <v>247.25</v>
       </c>
     </row>
     <row r="295">
@@ -2794,7 +2794,7 @@
         <v>-526.2972310906712</v>
       </c>
       <c r="B295" t="n">
-        <v>871.7027689093288</v>
+        <v>-1398</v>
       </c>
     </row>
     <row r="296">
@@ -2802,7 +2802,7 @@
         <v>116.9257405597307</v>
       </c>
       <c r="B296" t="n">
-        <v>-37.82425944026926</v>
+        <v>154.75</v>
       </c>
     </row>
     <row r="297">
@@ -2810,7 +2810,7 @@
         <v>-119.2880582262155</v>
       </c>
       <c r="B297" t="n">
-        <v>886.2119417737845</v>
+        <v>-1005.5</v>
       </c>
     </row>
     <row r="298">
@@ -2818,7 +2818,7 @@
         <v>102.5018876185773</v>
       </c>
       <c r="B298" t="n">
-        <v>11.75188761857726</v>
+        <v>90.75</v>
       </c>
     </row>
     <row r="299">
@@ -2826,7 +2826,7 @@
         <v>670.7813291081811</v>
       </c>
       <c r="B299" t="n">
-        <v>1490.781329108181</v>
+        <v>-820</v>
       </c>
     </row>
     <row r="300">
@@ -2834,7 +2834,7 @@
         <v>45.44772201587284</v>
       </c>
       <c r="B300" t="n">
-        <v>238.6977220158728</v>
+        <v>-193.25</v>
       </c>
     </row>
     <row r="301">
@@ -2842,7 +2842,7 @@
         <v>205.7486978460329</v>
       </c>
       <c r="B301" t="n">
-        <v>-937.5013021539671</v>
+        <v>1143.25</v>
       </c>
     </row>
     <row r="302">
@@ -2850,7 +2850,7 @@
         <v>-652.3693741462946</v>
       </c>
       <c r="B302" t="n">
-        <v>491.1306258537054</v>
+        <v>-1143.5</v>
       </c>
     </row>
     <row r="303">
@@ -2858,7 +2858,7 @@
         <v>217.5126227226968</v>
       </c>
       <c r="B303" t="n">
-        <v>169.5126227226968</v>
+        <v>48</v>
       </c>
     </row>
     <row r="304">
@@ -2866,7 +2866,7 @@
         <v>138.6631504068956</v>
       </c>
       <c r="B304" t="n">
-        <v>-280.0868495931044</v>
+        <v>418.75</v>
       </c>
     </row>
     <row r="305">
@@ -2874,7 +2874,7 @@
         <v>-596.2187965348576</v>
       </c>
       <c r="B305" t="n">
-        <v>814.0312034651424</v>
+        <v>-1410.25</v>
       </c>
     </row>
     <row r="306">
@@ -2882,7 +2882,7 @@
         <v>-333.9144520396405</v>
       </c>
       <c r="B306" t="n">
-        <v>-1339.914452039641</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="307">
@@ -2890,7 +2890,7 @@
         <v>168.9473368012182</v>
       </c>
       <c r="B307" t="n">
-        <v>536.4473368012182</v>
+        <v>-367.5</v>
       </c>
     </row>
     <row r="308">
@@ -2898,7 +2898,7 @@
         <v>-375.3096955301751</v>
       </c>
       <c r="B308" t="n">
-        <v>674.9403044698249</v>
+        <v>-1050.25</v>
       </c>
     </row>
     <row r="309">
@@ -2906,7 +2906,7 @@
         <v>165.9441661066162</v>
       </c>
       <c r="B309" t="n">
-        <v>326.1941661066162</v>
+        <v>-160.25</v>
       </c>
     </row>
     <row r="310">
@@ -2914,7 +2914,7 @@
         <v>201.6126349778918</v>
       </c>
       <c r="B310" t="n">
-        <v>-157.6373650221082</v>
+        <v>359.25</v>
       </c>
     </row>
     <row r="311">
@@ -2922,7 +2922,7 @@
         <v>104.3093669058665</v>
       </c>
       <c r="B311" t="n">
-        <v>609.5593669058665</v>
+        <v>-505.25</v>
       </c>
     </row>
     <row r="312">
@@ -2930,7 +2930,7 @@
         <v>-193.6082768001993</v>
       </c>
       <c r="B312" t="n">
-        <v>123.3917231998007</v>
+        <v>-317</v>
       </c>
     </row>
     <row r="313">
@@ -2938,7 +2938,7 @@
         <v>119.0833990211204</v>
       </c>
       <c r="B313" t="n">
-        <v>-2309.41660097888</v>
+        <v>2428.5</v>
       </c>
     </row>
     <row r="314">
@@ -2946,7 +2946,7 @@
         <v>160.0234054490884</v>
       </c>
       <c r="B314" t="n">
-        <v>-520.2265945509116</v>
+        <v>680.25</v>
       </c>
     </row>
     <row r="315">
@@ -2954,7 +2954,7 @@
         <v>-189.1838556646129</v>
       </c>
       <c r="B315" t="n">
-        <v>-1089.683855664613</v>
+        <v>900.5</v>
       </c>
     </row>
     <row r="316">
@@ -2962,7 +2962,7 @@
         <v>-932.6363937490851</v>
       </c>
       <c r="B316" t="n">
-        <v>-39.13639374908507</v>
+        <v>-893.5</v>
       </c>
     </row>
     <row r="317">
@@ -2970,7 +2970,7 @@
         <v>-285.891837361469</v>
       </c>
       <c r="B317" t="n">
-        <v>558.608162638531</v>
+        <v>-844.5</v>
       </c>
     </row>
     <row r="318">
@@ -2978,7 +2978,7 @@
         <v>20.54341238017693</v>
       </c>
       <c r="B318" t="n">
-        <v>97.29341238017693</v>
+        <v>-76.75</v>
       </c>
     </row>
     <row r="319">
@@ -2986,7 +2986,7 @@
         <v>32.92230223392323</v>
       </c>
       <c r="B319" t="n">
-        <v>268.1723022339232</v>
+        <v>-235.25</v>
       </c>
     </row>
     <row r="320">
@@ -2994,7 +2994,7 @@
         <v>304.9224989914628</v>
       </c>
       <c r="B320" t="n">
-        <v>-1608.827501008537</v>
+        <v>1913.75</v>
       </c>
     </row>
     <row r="321">
@@ -3002,7 +3002,7 @@
         <v>312.4770095585434</v>
       </c>
       <c r="B321" t="n">
-        <v>519.9770095585434</v>
+        <v>-207.5</v>
       </c>
     </row>
     <row r="322">
@@ -3010,7 +3010,7 @@
         <v>178.0435821335896</v>
       </c>
       <c r="B322" t="n">
-        <v>21.54358213358955</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="323">
@@ -3018,7 +3018,7 @@
         <v>33.7602350851854</v>
       </c>
       <c r="B323" t="n">
-        <v>533.5102350851854</v>
+        <v>-499.75</v>
       </c>
     </row>
     <row r="324">
@@ -3026,7 +3026,7 @@
         <v>36.95922970670972</v>
       </c>
       <c r="B324" t="n">
-        <v>-133.5407702932903</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="325">
@@ -3034,7 +3034,7 @@
         <v>114.00664240596</v>
       </c>
       <c r="B325" t="n">
-        <v>-821.24335759404</v>
+        <v>935.25</v>
       </c>
     </row>
     <row r="326">
@@ -3042,7 +3042,7 @@
         <v>143.8011549244134</v>
       </c>
       <c r="B326" t="n">
-        <v>702.3011549244134</v>
+        <v>-558.5</v>
       </c>
     </row>
     <row r="327">
@@ -3050,7 +3050,7 @@
         <v>260.3934832720079</v>
       </c>
       <c r="B327" t="n">
-        <v>-780.8565167279921</v>
+        <v>1041.25</v>
       </c>
     </row>
     <row r="328">
@@ -3058,7 +3058,7 @@
         <v>43.3174565667571</v>
       </c>
       <c r="B328" t="n">
-        <v>168.3174565667571</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="329">
@@ -3066,7 +3066,7 @@
         <v>-751.8057867965936</v>
       </c>
       <c r="B329" t="n">
-        <v>-476.5557867965936</v>
+        <v>-275.25</v>
       </c>
     </row>
     <row r="330">
@@ -3074,7 +3074,7 @@
         <v>-383.706523756515</v>
       </c>
       <c r="B330" t="n">
-        <v>-1910.456523756515</v>
+        <v>1526.75</v>
       </c>
     </row>
     <row r="331">
@@ -3082,7 +3082,7 @@
         <v>58.08333641157787</v>
       </c>
       <c r="B331" t="n">
-        <v>795.0833364115779</v>
+        <v>-737</v>
       </c>
     </row>
     <row r="332">
@@ -3090,7 +3090,7 @@
         <v>294.5214742104504</v>
       </c>
       <c r="B332" t="n">
-        <v>827.7714742104504</v>
+        <v>-533.25</v>
       </c>
     </row>
     <row r="333">
@@ -3098,7 +3098,7 @@
         <v>-61.40976888627986</v>
       </c>
       <c r="B333" t="n">
-        <v>-126.9097688862799</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="334">
@@ -3106,7 +3106,7 @@
         <v>63.3653433098026</v>
       </c>
       <c r="B334" t="n">
-        <v>617.6153433098026</v>
+        <v>-554.25</v>
       </c>
     </row>
     <row r="335">
@@ -3114,7 +3114,7 @@
         <v>108.5359831073147</v>
       </c>
       <c r="B335" t="n">
-        <v>970.2859831073147</v>
+        <v>-861.75</v>
       </c>
     </row>
     <row r="336">
@@ -3122,7 +3122,7 @@
         <v>164.6877593662261</v>
       </c>
       <c r="B336" t="n">
-        <v>277.1877593662261</v>
+        <v>-112.5</v>
       </c>
     </row>
     <row r="337">
@@ -3130,7 +3130,7 @@
         <v>378.671920512749</v>
       </c>
       <c r="B337" t="n">
-        <v>-3303.328079487251</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="338">
@@ -3138,7 +3138,7 @@
         <v>185.7293655615284</v>
       </c>
       <c r="B338" t="n">
-        <v>382.9793655615284</v>
+        <v>-197.25</v>
       </c>
     </row>
     <row r="339">
@@ -3146,7 +3146,7 @@
         <v>39.46856699682311</v>
       </c>
       <c r="B339" t="n">
-        <v>111.9685669968231</v>
+        <v>-72.5</v>
       </c>
     </row>
     <row r="340">
@@ -3154,7 +3154,7 @@
         <v>34.1812681220681</v>
       </c>
       <c r="B340" t="n">
-        <v>197.6812681220681</v>
+        <v>-163.5</v>
       </c>
     </row>
     <row r="341">
@@ -3162,7 +3162,7 @@
         <v>168.6348804307341</v>
       </c>
       <c r="B341" t="n">
-        <v>512.6348804307341</v>
+        <v>-344</v>
       </c>
     </row>
     <row r="342">
@@ -3170,7 +3170,7 @@
         <v>157.6074216823762</v>
       </c>
       <c r="B342" t="n">
-        <v>-199.1425783176238</v>
+        <v>356.75</v>
       </c>
     </row>
     <row r="343">
@@ -3178,7 +3178,7 @@
         <v>-199.0917013446957</v>
       </c>
       <c r="B343" t="n">
-        <v>820.6582986553043</v>
+        <v>-1019.75</v>
       </c>
     </row>
     <row r="344">
@@ -3186,7 +3186,7 @@
         <v>182.3875733495101</v>
       </c>
       <c r="B344" t="n">
-        <v>-188.1124266504899</v>
+        <v>370.5</v>
       </c>
     </row>
     <row r="345">
@@ -3194,7 +3194,7 @@
         <v>-585.8244376964396</v>
       </c>
       <c r="B345" t="n">
-        <v>422.1755623035604</v>
+        <v>-1008</v>
       </c>
     </row>
     <row r="346">
@@ -3202,7 +3202,7 @@
         <v>-660.2543968596394</v>
       </c>
       <c r="B346" t="n">
-        <v>-3935.754396859639</v>
+        <v>3275.5</v>
       </c>
     </row>
     <row r="347">
@@ -3210,7 +3210,7 @@
         <v>-69.78254933141199</v>
       </c>
       <c r="B347" t="n">
-        <v>-50.03254933141199</v>
+        <v>-19.75</v>
       </c>
     </row>
     <row r="348">
@@ -3218,7 +3218,7 @@
         <v>-352.3537610278445</v>
       </c>
       <c r="B348" t="n">
-        <v>-4797.603761027844</v>
+        <v>4445.25</v>
       </c>
     </row>
     <row r="349">
@@ -3226,7 +3226,7 @@
         <v>47.95632871362079</v>
       </c>
       <c r="B349" t="n">
-        <v>522.7063287136208</v>
+        <v>-474.75</v>
       </c>
     </row>
     <row r="350">
@@ -3234,7 +3234,7 @@
         <v>52.14198866439665</v>
       </c>
       <c r="B350" t="n">
-        <v>187.1419886643966</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="351">
@@ -3242,7 +3242,7 @@
         <v>251.3315935970073</v>
       </c>
       <c r="B351" t="n">
-        <v>-185.1684064029927</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="352">
@@ -3250,7 +3250,7 @@
         <v>-825.7785341919953</v>
       </c>
       <c r="B352" t="n">
-        <v>658.2214658080047</v>
+        <v>-1484</v>
       </c>
     </row>
     <row r="353">
@@ -3258,7 +3258,7 @@
         <v>294.9514809052948</v>
       </c>
       <c r="B353" t="n">
-        <v>294.9514809052948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -3266,7 +3266,7 @@
         <v>208.1794564256572</v>
       </c>
       <c r="B354" t="n">
-        <v>298.6794564256572</v>
+        <v>-90.5</v>
       </c>
     </row>
     <row r="355">
@@ -3274,7 +3274,7 @@
         <v>1022.054072718714</v>
       </c>
       <c r="B355" t="n">
-        <v>378.5540727187145</v>
+        <v>643.5</v>
       </c>
     </row>
     <row r="356">
@@ -3282,7 +3282,7 @@
         <v>346.776969264655</v>
       </c>
       <c r="B356" t="n">
-        <v>601.776969264655</v>
+        <v>-255</v>
       </c>
     </row>
     <row r="357">
@@ -3290,7 +3290,7 @@
         <v>47.75086624803782</v>
       </c>
       <c r="B357" t="n">
-        <v>-2629.499133751962</v>
+        <v>2677.25</v>
       </c>
     </row>
     <row r="358">
@@ -3298,7 +3298,7 @@
         <v>317.0644741267984</v>
       </c>
       <c r="B358" t="n">
-        <v>525.0644741267984</v>
+        <v>-208</v>
       </c>
     </row>
     <row r="359">
@@ -3306,7 +3306,7 @@
         <v>-142.9026450188622</v>
       </c>
       <c r="B359" t="n">
-        <v>-2235.652645018862</v>
+        <v>2092.75</v>
       </c>
     </row>
     <row r="360">
@@ -3314,7 +3314,7 @@
         <v>-404.6013163229193</v>
       </c>
       <c r="B360" t="n">
-        <v>-1173.601316322919</v>
+        <v>769</v>
       </c>
     </row>
     <row r="361">
@@ -3322,7 +3322,7 @@
         <v>133.5431179008781</v>
       </c>
       <c r="B361" t="n">
-        <v>-207.7068820991219</v>
+        <v>341.25</v>
       </c>
     </row>
     <row r="362">
@@ -3330,7 +3330,7 @@
         <v>190.9804168532684</v>
       </c>
       <c r="B362" t="n">
-        <v>239.7304168532684</v>
+        <v>-48.75</v>
       </c>
     </row>
     <row r="363">
@@ -3338,7 +3338,7 @@
         <v>318.8017511949884</v>
       </c>
       <c r="B363" t="n">
-        <v>-4258.198248805012</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="364">
@@ -3346,7 +3346,7 @@
         <v>244.846805170164</v>
       </c>
       <c r="B364" t="n">
-        <v>-278.653194829836</v>
+        <v>523.5</v>
       </c>
     </row>
     <row r="365">
@@ -3354,7 +3354,7 @@
         <v>225.8930017018038</v>
       </c>
       <c r="B365" t="n">
-        <v>-1304.106998298196</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="366">
@@ -3362,7 +3362,7 @@
         <v>-969.4025150293796</v>
       </c>
       <c r="B366" t="n">
-        <v>-352.1525150293796</v>
+        <v>-617.25</v>
       </c>
     </row>
     <row r="367">
@@ -3370,7 +3370,7 @@
         <v>202.8258737977842</v>
       </c>
       <c r="B367" t="n">
-        <v>-1804.424126202216</v>
+        <v>2007.25</v>
       </c>
     </row>
     <row r="368">
@@ -3378,7 +3378,7 @@
         <v>307.3331770354814</v>
       </c>
       <c r="B368" t="n">
-        <v>517.3331770354814</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="369">
@@ -3386,7 +3386,7 @@
         <v>-2.216297503471196</v>
       </c>
       <c r="B369" t="n">
-        <v>-791.4662975034712</v>
+        <v>789.25</v>
       </c>
     </row>
     <row r="370">
@@ -3394,7 +3394,7 @@
         <v>-600.2259328725509</v>
       </c>
       <c r="B370" t="n">
-        <v>1149.524067127449</v>
+        <v>-1749.75</v>
       </c>
     </row>
     <row r="371">
@@ -3402,7 +3402,7 @@
         <v>-99.84649441101612</v>
       </c>
       <c r="B371" t="n">
-        <v>322.6535055889839</v>
+        <v>-422.5</v>
       </c>
     </row>
     <row r="372">
@@ -3410,7 +3410,7 @@
         <v>-141.2733231358588</v>
       </c>
       <c r="B372" t="n">
-        <v>-1636.773323135859</v>
+        <v>1495.5</v>
       </c>
     </row>
     <row r="373">
@@ -3418,7 +3418,7 @@
         <v>-83.71209291057983</v>
       </c>
       <c r="B373" t="n">
-        <v>588.0379070894202</v>
+        <v>-671.75</v>
       </c>
     </row>
     <row r="374">
@@ -3426,7 +3426,7 @@
         <v>183.2120637696393</v>
       </c>
       <c r="B374" t="n">
-        <v>509.7120637696393</v>
+        <v>-326.5</v>
       </c>
     </row>
     <row r="375">
@@ -3434,7 +3434,7 @@
         <v>166.1864612418034</v>
       </c>
       <c r="B375" t="n">
-        <v>284.9364612418034</v>
+        <v>-118.75</v>
       </c>
     </row>
     <row r="376">
@@ -3442,7 +3442,7 @@
         <v>190.2067956806727</v>
       </c>
       <c r="B376" t="n">
-        <v>201.7067956806727</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="377">
@@ -3450,7 +3450,7 @@
         <v>100.4891186915652</v>
       </c>
       <c r="B377" t="n">
-        <v>-1172.760881308435</v>
+        <v>1273.25</v>
       </c>
     </row>
     <row r="378">
@@ -3458,7 +3458,7 @@
         <v>-557.683300031048</v>
       </c>
       <c r="B378" t="n">
-        <v>-1400.683300031048</v>
+        <v>843</v>
       </c>
     </row>
     <row r="379">
@@ -3466,7 +3466,7 @@
         <v>185.4738971584945</v>
       </c>
       <c r="B379" t="n">
-        <v>237.9738971584945</v>
+        <v>-52.5</v>
       </c>
     </row>
     <row r="380">
@@ -3474,7 +3474,7 @@
         <v>186.3471664007927</v>
       </c>
       <c r="B380" t="n">
-        <v>751.0971664007927</v>
+        <v>-564.75</v>
       </c>
     </row>
     <row r="381">
@@ -3482,7 +3482,7 @@
         <v>-983.8318759701328</v>
       </c>
       <c r="B381" t="n">
-        <v>-1843.331875970133</v>
+        <v>859.5</v>
       </c>
     </row>
     <row r="382">
@@ -3490,7 +3490,7 @@
         <v>161.6821568181917</v>
       </c>
       <c r="B382" t="n">
-        <v>-16.56784318180826</v>
+        <v>178.25</v>
       </c>
     </row>
     <row r="383">
@@ -3498,7 +3498,7 @@
         <v>225.7551371007486</v>
       </c>
       <c r="B383" t="n">
-        <v>160.2551371007486</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="384">
@@ -3506,7 +3506,7 @@
         <v>173.4232664527635</v>
       </c>
       <c r="B384" t="n">
-        <v>233.6732664527635</v>
+        <v>-60.25</v>
       </c>
     </row>
     <row r="385">
@@ -3514,7 +3514,7 @@
         <v>227.9885331641302</v>
       </c>
       <c r="B385" t="n">
-        <v>678.9885331641302</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="386">
@@ -3522,7 +3522,7 @@
         <v>203.0393594150261</v>
       </c>
       <c r="B386" t="n">
-        <v>-368.9606405849739</v>
+        <v>572</v>
       </c>
     </row>
     <row r="387">
@@ -3530,7 +3530,7 @@
         <v>263.4998872401483</v>
       </c>
       <c r="B387" t="n">
-        <v>739.2498872401483</v>
+        <v>-475.75</v>
       </c>
     </row>
     <row r="388">
@@ -3538,7 +3538,7 @@
         <v>198.8939731491151</v>
       </c>
       <c r="B388" t="n">
-        <v>449.1439731491151</v>
+        <v>-250.25</v>
       </c>
     </row>
     <row r="389">
@@ -3546,7 +3546,7 @@
         <v>662.0537409783365</v>
       </c>
       <c r="B389" t="n">
-        <v>-1498.446259021664</v>
+        <v>2160.5</v>
       </c>
     </row>
     <row r="390">
@@ -3554,7 +3554,7 @@
         <v>137.4342672279798</v>
       </c>
       <c r="B390" t="n">
-        <v>675.1842672279798</v>
+        <v>-537.75</v>
       </c>
     </row>
     <row r="391">
@@ -3562,7 +3562,7 @@
         <v>213.7450771836615</v>
       </c>
       <c r="B391" t="n">
-        <v>-1037.004922816338</v>
+        <v>1250.75</v>
       </c>
     </row>
     <row r="392">
@@ -3570,7 +3570,7 @@
         <v>72.29133585141506</v>
       </c>
       <c r="B392" t="n">
-        <v>336.5413358514151</v>
+        <v>-264.25</v>
       </c>
     </row>
     <row r="393">
@@ -3578,7 +3578,7 @@
         <v>-724.429036243574</v>
       </c>
       <c r="B393" t="n">
-        <v>263.070963756426</v>
+        <v>-987.5</v>
       </c>
     </row>
     <row r="394">
@@ -3586,7 +3586,7 @@
         <v>180.2785512410819</v>
       </c>
       <c r="B394" t="n">
-        <v>400.7785512410819</v>
+        <v>-220.5</v>
       </c>
     </row>
     <row r="395">
@@ -3594,7 +3594,7 @@
         <v>115.5796208955438</v>
       </c>
       <c r="B395" t="n">
-        <v>73.82962089554377</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="396">
@@ -3602,7 +3602,7 @@
         <v>211.4250875723417</v>
       </c>
       <c r="B396" t="n">
-        <v>525.4250875723417</v>
+        <v>-314</v>
       </c>
     </row>
     <row r="397">
@@ -3610,7 +3610,7 @@
         <v>280.5645918718629</v>
       </c>
       <c r="B397" t="n">
-        <v>666.3145918718629</v>
+        <v>-385.75</v>
       </c>
     </row>
     <row r="398">
@@ -3618,7 +3618,7 @@
         <v>228.6950765223884</v>
       </c>
       <c r="B398" t="n">
-        <v>8.445076522388376</v>
+        <v>220.25</v>
       </c>
     </row>
     <row r="399">
@@ -3626,7 +3626,7 @@
         <v>75.21196574320061</v>
       </c>
       <c r="B399" t="n">
-        <v>165.7119657432006</v>
+        <v>-90.5</v>
       </c>
     </row>
     <row r="400">
@@ -3634,7 +3634,7 @@
         <v>456.5192187793573</v>
       </c>
       <c r="B400" t="n">
-        <v>1047.019218779357</v>
+        <v>-590.5</v>
       </c>
     </row>
     <row r="401">
@@ -3642,7 +3642,7 @@
         <v>145.0998932636846</v>
       </c>
       <c r="B401" t="n">
-        <v>-242.9001067363154</v>
+        <v>388</v>
       </c>
     </row>
     <row r="402">
@@ -3650,7 +3650,7 @@
         <v>168.8289000448701</v>
       </c>
       <c r="B402" t="n">
-        <v>-197.4210999551299</v>
+        <v>366.25</v>
       </c>
     </row>
     <row r="403">
@@ -3658,7 +3658,7 @@
         <v>-809.1421929052649</v>
       </c>
       <c r="B403" t="n">
-        <v>-3658.142192905265</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="404">
@@ -3666,7 +3666,7 @@
         <v>84.2451970883568</v>
       </c>
       <c r="B404" t="n">
-        <v>142.7451970883568</v>
+        <v>-58.5</v>
       </c>
     </row>
     <row r="405">
@@ -3674,7 +3674,7 @@
         <v>356.3068949578221</v>
       </c>
       <c r="B405" t="n">
-        <v>723.5568949578221</v>
+        <v>-367.25</v>
       </c>
     </row>
     <row r="406">
@@ -3682,7 +3682,7 @@
         <v>190.8474865535483</v>
       </c>
       <c r="B406" t="n">
-        <v>160.5974865535483</v>
+        <v>30.25</v>
       </c>
     </row>
     <row r="407">
@@ -3690,7 +3690,7 @@
         <v>91.41852825507647</v>
       </c>
       <c r="B407" t="n">
-        <v>75.91852825507647</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="408">
@@ -3698,7 +3698,7 @@
         <v>296.4957355139304</v>
       </c>
       <c r="B408" t="n">
-        <v>-3698.75426448607</v>
+        <v>3995.25</v>
       </c>
     </row>
     <row r="409">
@@ -3706,7 +3706,7 @@
         <v>144.7149718724498</v>
       </c>
       <c r="B409" t="n">
-        <v>776.2149718724498</v>
+        <v>-631.5</v>
       </c>
     </row>
     <row r="410">
@@ -3714,7 +3714,7 @@
         <v>-98.53531193330741</v>
       </c>
       <c r="B410" t="n">
-        <v>-980.2853119333074</v>
+        <v>881.75</v>
       </c>
     </row>
     <row r="411">
@@ -3722,7 +3722,7 @@
         <v>296.461439524554</v>
       </c>
       <c r="B411" t="n">
-        <v>-557.288560475446</v>
+        <v>853.75</v>
       </c>
     </row>
     <row r="412">
@@ -3730,7 +3730,7 @@
         <v>-368.439301224638</v>
       </c>
       <c r="B412" t="n">
-        <v>-1053.689301224638</v>
+        <v>685.25</v>
       </c>
     </row>
     <row r="413">
@@ -3738,7 +3738,7 @@
         <v>194.9485156796995</v>
       </c>
       <c r="B413" t="n">
-        <v>100.9485156796995</v>
+        <v>94</v>
       </c>
     </row>
     <row r="414">
@@ -3746,7 +3746,7 @@
         <v>-162.1492564149546</v>
       </c>
       <c r="B414" t="n">
-        <v>-405.3992564149546</v>
+        <v>243.25</v>
       </c>
     </row>
     <row r="415">
@@ -3754,7 +3754,7 @@
         <v>-151.8202245853047</v>
       </c>
       <c r="B415" t="n">
-        <v>602.1797754146953</v>
+        <v>-754</v>
       </c>
     </row>
     <row r="416">
@@ -3762,7 +3762,7 @@
         <v>-708.2941032376607</v>
       </c>
       <c r="B416" t="n">
-        <v>831.4558967623393</v>
+        <v>-1539.75</v>
       </c>
     </row>
     <row r="417">
@@ -3770,7 +3770,7 @@
         <v>546.1729085787611</v>
       </c>
       <c r="B417" t="n">
-        <v>1323.422908578761</v>
+        <v>-777.25</v>
       </c>
     </row>
     <row r="418">
@@ -3778,7 +3778,7 @@
         <v>194.3915578991923</v>
       </c>
       <c r="B418" t="n">
-        <v>207.8915578991923</v>
+        <v>-13.5</v>
       </c>
     </row>
     <row r="419">
@@ -3786,7 +3786,7 @@
         <v>132.6167611749059</v>
       </c>
       <c r="B419" t="n">
-        <v>154.6167611749059</v>
+        <v>-22</v>
       </c>
     </row>
     <row r="420">
@@ -3794,7 +3794,7 @@
         <v>112.2424059196675</v>
       </c>
       <c r="B420" t="n">
-        <v>740.2424059196675</v>
+        <v>-628</v>
       </c>
     </row>
     <row r="421">
@@ -3802,7 +3802,7 @@
         <v>185.8451013762696</v>
       </c>
       <c r="B421" t="n">
-        <v>-857.4048986237303</v>
+        <v>1043.25</v>
       </c>
     </row>
     <row r="422">
@@ -3810,7 +3810,7 @@
         <v>145.6379286592452</v>
       </c>
       <c r="B422" t="n">
-        <v>223.3879286592452</v>
+        <v>-77.75</v>
       </c>
     </row>
     <row r="423">
@@ -3818,7 +3818,7 @@
         <v>45.02080409274697</v>
       </c>
       <c r="B423" t="n">
-        <v>-190.729195907253</v>
+        <v>235.75</v>
       </c>
     </row>
     <row r="424">
@@ -3826,7 +3826,7 @@
         <v>186.4629219212974</v>
       </c>
       <c r="B424" t="n">
-        <v>579.9629219212974</v>
+        <v>-393.5</v>
       </c>
     </row>
     <row r="425">
@@ -3834,7 +3834,7 @@
         <v>-82.64928653136246</v>
       </c>
       <c r="B425" t="n">
-        <v>325.8507134686375</v>
+        <v>-408.5</v>
       </c>
     </row>
     <row r="426">
@@ -3842,7 +3842,7 @@
         <v>-9.795216584582533</v>
       </c>
       <c r="B426" t="n">
-        <v>-191.2952165845825</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="427">
@@ -3850,7 +3850,7 @@
         <v>21.14135875564807</v>
       </c>
       <c r="B427" t="n">
-        <v>359.6413587556481</v>
+        <v>-338.5</v>
       </c>
     </row>
     <row r="428">
@@ -3858,7 +3858,7 @@
         <v>37.01634813036469</v>
       </c>
       <c r="B428" t="n">
-        <v>352.7663481303647</v>
+        <v>-315.75</v>
       </c>
     </row>
     <row r="429">
@@ -3866,7 +3866,7 @@
         <v>170.8346373228555</v>
       </c>
       <c r="B429" t="n">
-        <v>310.8346373228555</v>
+        <v>-140</v>
       </c>
     </row>
     <row r="430">
@@ -3874,7 +3874,7 @@
         <v>-530.595688559237</v>
       </c>
       <c r="B430" t="n">
-        <v>-4729.345688559237</v>
+        <v>4198.75</v>
       </c>
     </row>
     <row r="431">
@@ -3882,7 +3882,7 @@
         <v>324.5379634366395</v>
       </c>
       <c r="B431" t="n">
-        <v>780.5379634366395</v>
+        <v>-456</v>
       </c>
     </row>
     <row r="432">
@@ -3890,7 +3890,7 @@
         <v>-842.9431211565923</v>
       </c>
       <c r="B432" t="n">
-        <v>897.5568788434077</v>
+        <v>-1740.5</v>
       </c>
     </row>
     <row r="433">
@@ -3898,7 +3898,7 @@
         <v>-452.262721738417</v>
       </c>
       <c r="B433" t="n">
-        <v>486.737278261583</v>
+        <v>-939</v>
       </c>
     </row>
     <row r="434">
@@ -3906,7 +3906,7 @@
         <v>180.9712835616345</v>
       </c>
       <c r="B434" t="n">
-        <v>157.7212835616345</v>
+        <v>23.25</v>
       </c>
     </row>
     <row r="435">
@@ -3914,7 +3914,7 @@
         <v>204.1723073864721</v>
       </c>
       <c r="B435" t="n">
-        <v>117.9223073864721</v>
+        <v>86.25</v>
       </c>
     </row>
     <row r="436">
@@ -3922,7 +3922,7 @@
         <v>118.3636270678248</v>
       </c>
       <c r="B436" t="n">
-        <v>-834.6363729321752</v>
+        <v>953</v>
       </c>
     </row>
     <row r="437">
@@ -3930,7 +3930,7 @@
         <v>323.1847785835364</v>
       </c>
       <c r="B437" t="n">
-        <v>266.4347785835364</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="438">
@@ -3938,7 +3938,7 @@
         <v>39.14957852791457</v>
       </c>
       <c r="B438" t="n">
-        <v>114.1495785279146</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="439">
@@ -3946,7 +3946,7 @@
         <v>5.284817791318403</v>
       </c>
       <c r="B439" t="n">
-        <v>115.0348177913184</v>
+        <v>-109.75</v>
       </c>
     </row>
     <row r="440">
@@ -3954,7 +3954,7 @@
         <v>54.32484649919479</v>
       </c>
       <c r="B440" t="n">
-        <v>327.8248464991948</v>
+        <v>-273.5</v>
       </c>
     </row>
     <row r="441">
@@ -3962,7 +3962,7 @@
         <v>198.9700333129265</v>
       </c>
       <c r="B441" t="n">
-        <v>-41.27996668707351</v>
+        <v>240.25</v>
       </c>
     </row>
     <row r="442">
@@ -3970,7 +3970,7 @@
         <v>167.3631145654726</v>
       </c>
       <c r="B442" t="n">
-        <v>-209.1368854345274</v>
+        <v>376.5</v>
       </c>
     </row>
     <row r="443">
@@ -3978,7 +3978,7 @@
         <v>-0.7173661747423239</v>
       </c>
       <c r="B443" t="n">
-        <v>171.0326338252577</v>
+        <v>-171.75</v>
       </c>
     </row>
     <row r="444">
@@ -3986,7 +3986,7 @@
         <v>82.09825385385915</v>
       </c>
       <c r="B444" t="n">
-        <v>157.5982538538591</v>
+        <v>-75.5</v>
       </c>
     </row>
     <row r="445">
@@ -3994,7 +3994,7 @@
         <v>177.1723214691278</v>
       </c>
       <c r="B445" t="n">
-        <v>-29.07767853087216</v>
+        <v>206.25</v>
       </c>
     </row>
     <row r="446">
@@ -4002,7 +4002,7 @@
         <v>267.3259105826168</v>
       </c>
       <c r="B446" t="n">
-        <v>749.8259105826168</v>
+        <v>-482.5</v>
       </c>
     </row>
     <row r="447">
@@ -4010,7 +4010,7 @@
         <v>278.4488859643685</v>
       </c>
       <c r="B447" t="n">
-        <v>-1541.301114035632</v>
+        <v>1819.75</v>
       </c>
     </row>
     <row r="448">
@@ -4018,7 +4018,7 @@
         <v>154.1502027591578</v>
       </c>
       <c r="B448" t="n">
-        <v>-3928.849797240842</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="449">
@@ -4026,7 +4026,7 @@
         <v>-6.198850040784578</v>
       </c>
       <c r="B449" t="n">
-        <v>-205.9488500407846</v>
+        <v>199.75</v>
       </c>
     </row>
     <row r="450">
@@ -4034,7 +4034,7 @@
         <v>-121.3061656418466</v>
       </c>
       <c r="B450" t="n">
-        <v>689.9438343581534</v>
+        <v>-811.25</v>
       </c>
     </row>
     <row r="451">
@@ -4042,7 +4042,7 @@
         <v>106.0503300562076</v>
       </c>
       <c r="B451" t="n">
-        <v>218.5503300562076</v>
+        <v>-112.5</v>
       </c>
     </row>
     <row r="452">
@@ -4050,7 +4050,7 @@
         <v>50.97905785383887</v>
       </c>
       <c r="B452" t="n">
-        <v>728.9790578538389</v>
+        <v>-678</v>
       </c>
     </row>
     <row r="453">
@@ -4058,7 +4058,7 @@
         <v>236.9189973111737</v>
       </c>
       <c r="B453" t="n">
-        <v>532.4189973111737</v>
+        <v>-295.5</v>
       </c>
     </row>
     <row r="454">
@@ -4066,7 +4066,7 @@
         <v>-1176.96149625447</v>
       </c>
       <c r="B454" t="n">
-        <v>-352.9614962544699</v>
+        <v>-824</v>
       </c>
     </row>
     <row r="455">
@@ -4074,7 +4074,7 @@
         <v>156.0847144100379</v>
       </c>
       <c r="B455" t="n">
-        <v>471.0847144100379</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="456">
@@ -4082,7 +4082,7 @@
         <v>362.4207370792956</v>
       </c>
       <c r="B456" t="n">
-        <v>-278.5792629207044</v>
+        <v>641</v>
       </c>
     </row>
     <row r="457">
@@ -4090,7 +4090,7 @@
         <v>-182.5018877497328</v>
       </c>
       <c r="B457" t="n">
-        <v>1014.998112250267</v>
+        <v>-1197.5</v>
       </c>
     </row>
     <row r="458">
@@ -4098,7 +4098,7 @@
         <v>-145.4038485888937</v>
       </c>
       <c r="B458" t="n">
-        <v>391.5961514111063</v>
+        <v>-537</v>
       </c>
     </row>
     <row r="459">
@@ -4106,7 +4106,7 @@
         <v>-673.168400839873</v>
       </c>
       <c r="B459" t="n">
-        <v>829.331599160127</v>
+        <v>-1502.5</v>
       </c>
     </row>
     <row r="460">
@@ -4114,7 +4114,7 @@
         <v>-164.254819435262</v>
       </c>
       <c r="B460" t="n">
-        <v>-1040.254819435262</v>
+        <v>876</v>
       </c>
     </row>
     <row r="461">
@@ -4122,7 +4122,7 @@
         <v>291.118026139125</v>
       </c>
       <c r="B461" t="n">
-        <v>678.868026139125</v>
+        <v>-387.75</v>
       </c>
     </row>
     <row r="462">
@@ -4130,7 +4130,7 @@
         <v>144.2420605502777</v>
       </c>
       <c r="B462" t="n">
-        <v>231.9920605502777</v>
+        <v>-87.75</v>
       </c>
     </row>
     <row r="463">
@@ -4138,7 +4138,7 @@
         <v>-2.446273686558015</v>
       </c>
       <c r="B463" t="n">
-        <v>-35.19627368655802</v>
+        <v>32.75</v>
       </c>
     </row>
     <row r="464">
@@ -4146,7 +4146,7 @@
         <v>338.6068649520572</v>
       </c>
       <c r="B464" t="n">
-        <v>491.6068649520572</v>
+        <v>-153</v>
       </c>
     </row>
     <row r="465">
@@ -4154,7 +4154,7 @@
         <v>-154.3067641969973</v>
       </c>
       <c r="B465" t="n">
-        <v>107.6932358030027</v>
+        <v>-262</v>
       </c>
     </row>
     <row r="466">
@@ -4162,7 +4162,7 @@
         <v>285.6111317708351</v>
       </c>
       <c r="B466" t="n">
-        <v>765.3611317708351</v>
+        <v>-479.75</v>
       </c>
     </row>
     <row r="467">
@@ -4170,7 +4170,7 @@
         <v>164.0612288061143</v>
       </c>
       <c r="B467" t="n">
-        <v>-1106.688771193886</v>
+        <v>1270.75</v>
       </c>
     </row>
     <row r="468">
@@ -4178,7 +4178,7 @@
         <v>5.586505991684476</v>
       </c>
       <c r="B468" t="n">
-        <v>1.836505991684476</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="469">
@@ -4186,7 +4186,7 @@
         <v>17.41055125982643</v>
       </c>
       <c r="B469" t="n">
-        <v>332.1605512598264</v>
+        <v>-314.75</v>
       </c>
     </row>
     <row r="470">
@@ -4194,7 +4194,7 @@
         <v>227.8036195919735</v>
       </c>
       <c r="B470" t="n">
-        <v>-317.6963804080265</v>
+        <v>545.5</v>
       </c>
     </row>
     <row r="471">
@@ -4202,7 +4202,7 @@
         <v>339.5044854777026</v>
       </c>
       <c r="B471" t="n">
-        <v>102.7544854777026</v>
+        <v>236.75</v>
       </c>
     </row>
     <row r="472">
@@ -4210,7 +4210,7 @@
         <v>274.5801384100853</v>
       </c>
       <c r="B472" t="n">
-        <v>177.5801384100853</v>
+        <v>97</v>
       </c>
     </row>
     <row r="473">
@@ -4218,7 +4218,7 @@
         <v>165.6419756931936</v>
       </c>
       <c r="B473" t="n">
-        <v>736.6419756931936</v>
+        <v>-571</v>
       </c>
     </row>
     <row r="474">
@@ -4226,7 +4226,7 @@
         <v>325.2876127227673</v>
       </c>
       <c r="B474" t="n">
-        <v>-987.4623872772327</v>
+        <v>1312.75</v>
       </c>
     </row>
     <row r="475">
@@ -4234,7 +4234,7 @@
         <v>-212.2362376415504</v>
       </c>
       <c r="B475" t="n">
-        <v>970.2637623584496</v>
+        <v>-1182.5</v>
       </c>
     </row>
     <row r="476">
@@ -4242,7 +4242,7 @@
         <v>-581.1413272149545</v>
       </c>
       <c r="B476" t="n">
-        <v>375.6086727850455</v>
+        <v>-956.75</v>
       </c>
     </row>
     <row r="477">
@@ -4250,7 +4250,7 @@
         <v>-91.27506258027552</v>
       </c>
       <c r="B477" t="n">
-        <v>-793.5250625802755</v>
+        <v>702.25</v>
       </c>
     </row>
     <row r="478">
@@ -4258,7 +4258,7 @@
         <v>128.318389725334</v>
       </c>
       <c r="B478" t="n">
-        <v>239.318389725334</v>
+        <v>-111</v>
       </c>
     </row>
     <row r="479">
@@ -4266,7 +4266,7 @@
         <v>130.2675964249194</v>
       </c>
       <c r="B479" t="n">
-        <v>681.5175964249194</v>
+        <v>-551.25</v>
       </c>
     </row>
     <row r="480">
@@ -4274,7 +4274,7 @@
         <v>114.4851197078387</v>
       </c>
       <c r="B480" t="n">
-        <v>-2705.764880292161</v>
+        <v>2820.25</v>
       </c>
     </row>
     <row r="481">
@@ -4282,7 +4282,7 @@
         <v>-1215.697886247556</v>
       </c>
       <c r="B481" t="n">
-        <v>-154.9478862475562</v>
+        <v>-1060.75</v>
       </c>
     </row>
     <row r="482">
@@ -4290,7 +4290,7 @@
         <v>-1232.56427756322</v>
       </c>
       <c r="B482" t="n">
-        <v>525.6857224367798</v>
+        <v>-1758.25</v>
       </c>
     </row>
     <row r="483">
@@ -4298,7 +4298,7 @@
         <v>-19.58045584278199</v>
       </c>
       <c r="B483" t="n">
-        <v>199.919544157218</v>
+        <v>-219.5</v>
       </c>
     </row>
     <row r="484">
@@ -4306,7 +4306,7 @@
         <v>311.8526037042827</v>
       </c>
       <c r="B484" t="n">
-        <v>341.6026037042827</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="485">
@@ -4314,7 +4314,7 @@
         <v>-545.6602645463256</v>
       </c>
       <c r="B485" t="n">
-        <v>-366.9102645463256</v>
+        <v>-178.75</v>
       </c>
     </row>
     <row r="486">
@@ -4322,7 +4322,7 @@
         <v>248.3156820130407</v>
       </c>
       <c r="B486" t="n">
-        <v>-661.4343179869593</v>
+        <v>909.75</v>
       </c>
     </row>
     <row r="487">
@@ -4330,7 +4330,7 @@
         <v>194.2124312025837</v>
       </c>
       <c r="B487" t="n">
-        <v>-979.0375687974163</v>
+        <v>1173.25</v>
       </c>
     </row>
     <row r="488">
@@ -4338,7 +4338,7 @@
         <v>-8.792262486713071</v>
       </c>
       <c r="B488" t="n">
-        <v>16.70773751328693</v>
+        <v>-25.5</v>
       </c>
     </row>
     <row r="489">
@@ -4346,7 +4346,7 @@
         <v>154.9961381287022</v>
       </c>
       <c r="B489" t="n">
-        <v>261.7461381287022</v>
+        <v>-106.75</v>
       </c>
     </row>
     <row r="490">
@@ -4354,7 +4354,7 @@
         <v>-956.2063244950912</v>
       </c>
       <c r="B490" t="n">
-        <v>1486.793675504909</v>
+        <v>-2443</v>
       </c>
     </row>
     <row r="491">
@@ -4362,7 +4362,7 @@
         <v>64.29159388183126</v>
       </c>
       <c r="B491" t="n">
-        <v>-366.9584061181687</v>
+        <v>431.25</v>
       </c>
     </row>
     <row r="492">
@@ -4370,7 +4370,7 @@
         <v>241.2282839854438</v>
       </c>
       <c r="B492" t="n">
-        <v>663.4782839854438</v>
+        <v>-422.25</v>
       </c>
     </row>
     <row r="493">
@@ -4378,7 +4378,7 @@
         <v>280.8108179251907</v>
       </c>
       <c r="B493" t="n">
-        <v>-558.9391820748093</v>
+        <v>839.75</v>
       </c>
     </row>
     <row r="494">
@@ -4386,7 +4386,7 @@
         <v>-372.7592615569052</v>
       </c>
       <c r="B494" t="n">
-        <v>861.9907384430948</v>
+        <v>-1234.75</v>
       </c>
     </row>
     <row r="495">
@@ -4394,7 +4394,7 @@
         <v>38.4479732761572</v>
       </c>
       <c r="B495" t="n">
-        <v>209.9479732761572</v>
+        <v>-171.5</v>
       </c>
     </row>
     <row r="496">
@@ -4402,7 +4402,7 @@
         <v>7.535769971676928</v>
       </c>
       <c r="B496" t="n">
-        <v>743.0357699716769</v>
+        <v>-735.5</v>
       </c>
     </row>
     <row r="497">
@@ -4410,7 +4410,7 @@
         <v>225.485953204619</v>
       </c>
       <c r="B497" t="n">
-        <v>-1324.514046795381</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="498">
@@ -4418,7 +4418,7 @@
         <v>-1533.090953730367</v>
       </c>
       <c r="B498" t="n">
-        <v>-494.5909537303667</v>
+        <v>-1038.5</v>
       </c>
     </row>
     <row r="499">
@@ -4426,7 +4426,7 @@
         <v>356.5134233976007</v>
       </c>
       <c r="B499" t="n">
-        <v>854.7634233976007</v>
+        <v>-498.25</v>
       </c>
     </row>
     <row r="500">
@@ -4434,7 +4434,7 @@
         <v>158.0215121844851</v>
       </c>
       <c r="B500" t="n">
-        <v>59.77151218448512</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="501">
@@ -4442,7 +4442,7 @@
         <v>23.07734305457137</v>
       </c>
       <c r="B501" t="n">
-        <v>-302.9226569454286</v>
+        <v>326</v>
       </c>
     </row>
     <row r="502">
@@ -4450,7 +4450,7 @@
         <v>308.687986275838</v>
       </c>
       <c r="B502" t="n">
-        <v>240.937986275838</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="503">
@@ -4458,7 +4458,7 @@
         <v>75.71841209578071</v>
       </c>
       <c r="B503" t="n">
-        <v>-596.7815879042194</v>
+        <v>672.5</v>
       </c>
     </row>
     <row r="504">
@@ -4466,7 +4466,7 @@
         <v>235.3555185790879</v>
       </c>
       <c r="B504" t="n">
-        <v>166.3555185790879</v>
+        <v>69</v>
       </c>
     </row>
     <row r="505">
@@ -4474,7 +4474,7 @@
         <v>118.785517651626</v>
       </c>
       <c r="B505" t="n">
-        <v>-255.964482348374</v>
+        <v>374.75</v>
       </c>
     </row>
     <row r="506">
@@ -4482,7 +4482,7 @@
         <v>226.295934251319</v>
       </c>
       <c r="B506" t="n">
-        <v>127.795934251319</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="507">
@@ -4490,7 +4490,7 @@
         <v>-100.1917863573364</v>
       </c>
       <c r="B507" t="n">
-        <v>462.5582136426636</v>
+        <v>-562.75</v>
       </c>
     </row>
     <row r="508">
@@ -4498,7 +4498,7 @@
         <v>37.93798208215765</v>
       </c>
       <c r="B508" t="n">
-        <v>598.9379820821576</v>
+        <v>-561</v>
       </c>
     </row>
     <row r="509">
@@ -4506,7 +4506,7 @@
         <v>-492.3659235151167</v>
       </c>
       <c r="B509" t="n">
-        <v>-116.6159235151167</v>
+        <v>-375.75</v>
       </c>
     </row>
     <row r="510">
@@ -4514,7 +4514,7 @@
         <v>142.4867469219261</v>
       </c>
       <c r="B510" t="n">
-        <v>206.7367469219261</v>
+        <v>-64.25</v>
       </c>
     </row>
     <row r="511">
@@ -4522,7 +4522,7 @@
         <v>227.1532308842524</v>
       </c>
       <c r="B511" t="n">
-        <v>621.1532308842524</v>
+        <v>-394</v>
       </c>
     </row>
     <row r="512">
@@ -4530,7 +4530,7 @@
         <v>-205.8567309458657</v>
       </c>
       <c r="B512" t="n">
-        <v>461.3932690541343</v>
+        <v>-667.25</v>
       </c>
     </row>
     <row r="513">
@@ -4538,7 +4538,7 @@
         <v>182.5121293078113</v>
       </c>
       <c r="B513" t="n">
-        <v>547.0121293078113</v>
+        <v>-364.5</v>
       </c>
     </row>
     <row r="514">
@@ -4546,7 +4546,7 @@
         <v>27.68090152871889</v>
       </c>
       <c r="B514" t="n">
-        <v>-132.3190984712811</v>
+        <v>160</v>
       </c>
     </row>
     <row r="515">
@@ -4554,7 +4554,7 @@
         <v>-165.482287084471</v>
       </c>
       <c r="B515" t="n">
-        <v>1627.767712915529</v>
+        <v>-1793.25</v>
       </c>
     </row>
     <row r="516">
@@ -4562,7 +4562,7 @@
         <v>-183.0685680438278</v>
       </c>
       <c r="B516" t="n">
-        <v>-1470.068568043828</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="517">
@@ -4570,7 +4570,7 @@
         <v>-278.1696408989441</v>
       </c>
       <c r="B517" t="n">
-        <v>-1646.419640898944</v>
+        <v>1368.25</v>
       </c>
     </row>
     <row r="518">
@@ -4578,7 +4578,7 @@
         <v>334.9659297548455</v>
       </c>
       <c r="B518" t="n">
-        <v>187.9659297548455</v>
+        <v>147</v>
       </c>
     </row>
     <row r="519">
@@ -4586,7 +4586,7 @@
         <v>221.3791899844454</v>
       </c>
       <c r="B519" t="n">
-        <v>86.87918998444536</v>
+        <v>134.5</v>
       </c>
     </row>
     <row r="520">
@@ -4594,7 +4594,7 @@
         <v>161.0421753481055</v>
       </c>
       <c r="B520" t="n">
-        <v>-270.9578246518945</v>
+        <v>432</v>
       </c>
     </row>
     <row r="521">
@@ -4602,7 +4602,7 @@
         <v>-34.23793848924493</v>
       </c>
       <c r="B521" t="n">
-        <v>942.2620615107551</v>
+        <v>-976.5</v>
       </c>
     </row>
     <row r="522">
@@ -4610,7 +4610,7 @@
         <v>48.92516237381807</v>
       </c>
       <c r="B522" t="n">
-        <v>208.4251623738181</v>
+        <v>-159.5</v>
       </c>
     </row>
     <row r="523">
@@ -4618,7 +4618,7 @@
         <v>51.77537502856461</v>
       </c>
       <c r="B523" t="n">
-        <v>308.0253750285646</v>
+        <v>-256.25</v>
       </c>
     </row>
     <row r="524">
@@ -4626,7 +4626,7 @@
         <v>-743.2680604591174</v>
       </c>
       <c r="B524" t="n">
-        <v>-1983.018060459117</v>
+        <v>1239.75</v>
       </c>
     </row>
     <row r="525">
@@ -4634,7 +4634,7 @@
         <v>85.39674571456021</v>
       </c>
       <c r="B525" t="n">
-        <v>550.1467457145602</v>
+        <v>-464.75</v>
       </c>
     </row>
     <row r="526">
@@ -4642,7 +4642,7 @@
         <v>312.5232856169538</v>
       </c>
       <c r="B526" t="n">
-        <v>640.5232856169538</v>
+        <v>-328</v>
       </c>
     </row>
     <row r="527">
@@ -4650,7 +4650,7 @@
         <v>232.2197144097987</v>
       </c>
       <c r="B527" t="n">
-        <v>626.2197144097987</v>
+        <v>-394</v>
       </c>
     </row>
     <row r="528">
@@ -4658,7 +4658,7 @@
         <v>384.4842328424098</v>
       </c>
       <c r="B528" t="n">
-        <v>372.7342328424098</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="529">
@@ -4666,7 +4666,7 @@
         <v>263.786565721636</v>
       </c>
       <c r="B529" t="n">
-        <v>-495.213434278364</v>
+        <v>759</v>
       </c>
     </row>
     <row r="530">
@@ -4674,7 +4674,7 @@
         <v>341.7432134995133</v>
       </c>
       <c r="B530" t="n">
-        <v>-1814.006786500487</v>
+        <v>2155.75</v>
       </c>
     </row>
     <row r="531">
@@ -4682,7 +4682,7 @@
         <v>-225.544626846264</v>
       </c>
       <c r="B531" t="n">
-        <v>723.705373153736</v>
+        <v>-949.25</v>
       </c>
     </row>
     <row r="532">
@@ -4690,7 +4690,7 @@
         <v>303.3942530885424</v>
       </c>
       <c r="B532" t="n">
-        <v>1089.894253088542</v>
+        <v>-786.5</v>
       </c>
     </row>
     <row r="533">
@@ -4698,7 +4698,7 @@
         <v>-353.4004960485747</v>
       </c>
       <c r="B533" t="n">
-        <v>-520.9004960485747</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="534">
@@ -4706,7 +4706,7 @@
         <v>-628.764355706943</v>
       </c>
       <c r="B534" t="n">
-        <v>-155.764355706943</v>
+        <v>-473</v>
       </c>
     </row>
     <row r="535">
@@ -4714,7 +4714,7 @@
         <v>179.272555961587</v>
       </c>
       <c r="B535" t="n">
-        <v>139.022555961587</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="536">
@@ -4722,7 +4722,7 @@
         <v>125.6043065745341</v>
       </c>
       <c r="B536" t="n">
-        <v>224.8543065745341</v>
+        <v>-99.25</v>
       </c>
     </row>
     <row r="537">
@@ -4730,7 +4730,7 @@
         <v>329.6721195005996</v>
       </c>
       <c r="B537" t="n">
-        <v>1041.9221195006</v>
+        <v>-712.25</v>
       </c>
     </row>
     <row r="538">
@@ -4738,7 +4738,7 @@
         <v>82.73844500345444</v>
       </c>
       <c r="B538" t="n">
-        <v>-917.7615549965456</v>
+        <v>1000.5</v>
       </c>
     </row>
     <row r="539">
@@ -4746,7 +4746,7 @@
         <v>274.7411340627316</v>
       </c>
       <c r="B539" t="n">
-        <v>-485.7588659372684</v>
+        <v>760.5</v>
       </c>
     </row>
     <row r="540">
@@ -4754,7 +4754,7 @@
         <v>190.2769355126159</v>
       </c>
       <c r="B540" t="n">
-        <v>-527.9730644873841</v>
+        <v>718.25</v>
       </c>
     </row>
     <row r="541">
@@ -4762,7 +4762,7 @@
         <v>-226.8062738886343</v>
       </c>
       <c r="B541" t="n">
-        <v>307.4437261113657</v>
+        <v>-534.25</v>
       </c>
     </row>
     <row r="542">
@@ -4770,7 +4770,7 @@
         <v>134.2299325066356</v>
       </c>
       <c r="B542" t="n">
-        <v>326.7299325066356</v>
+        <v>-192.5</v>
       </c>
     </row>
     <row r="543">
@@ -4778,7 +4778,7 @@
         <v>-469.0143508332305</v>
       </c>
       <c r="B543" t="n">
-        <v>-2265.01435083323</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="544">
@@ -4786,7 +4786,7 @@
         <v>97.24264956928647</v>
       </c>
       <c r="B544" t="n">
-        <v>205.4926495692865</v>
+        <v>-108.25</v>
       </c>
     </row>
     <row r="545">
@@ -4794,7 +4794,7 @@
         <v>118.8363507170507</v>
       </c>
       <c r="B545" t="n">
-        <v>67.83635071705066</v>
+        <v>51</v>
       </c>
     </row>
     <row r="546">
@@ -4802,7 +4802,7 @@
         <v>-15.7234107953268</v>
       </c>
       <c r="B546" t="n">
-        <v>162.5265892046732</v>
+        <v>-178.25</v>
       </c>
     </row>
     <row r="547">
@@ -4810,7 +4810,7 @@
         <v>175.6813987458984</v>
       </c>
       <c r="B547" t="n">
-        <v>-169.3186012541016</v>
+        <v>345</v>
       </c>
     </row>
     <row r="548">
@@ -4818,7 +4818,7 @@
         <v>11.04426042828493</v>
       </c>
       <c r="B548" t="n">
-        <v>255.0442604282849</v>
+        <v>-244</v>
       </c>
     </row>
     <row r="549">
@@ -4826,7 +4826,7 @@
         <v>186.5145919615348</v>
       </c>
       <c r="B549" t="n">
-        <v>354.0145919615348</v>
+        <v>-167.5</v>
       </c>
     </row>
     <row r="550">
@@ -4834,7 +4834,7 @@
         <v>338.2334200069801</v>
       </c>
       <c r="B550" t="n">
-        <v>672.2334200069801</v>
+        <v>-334</v>
       </c>
     </row>
     <row r="551">
@@ -4842,7 +4842,7 @@
         <v>167.7969296974574</v>
       </c>
       <c r="B551" t="n">
-        <v>296.2969296974574</v>
+        <v>-128.5</v>
       </c>
     </row>
     <row r="552">
@@ -4850,7 +4850,7 @@
         <v>242.8843687936744</v>
       </c>
       <c r="B552" t="n">
-        <v>838.6343687936744</v>
+        <v>-595.75</v>
       </c>
     </row>
     <row r="553">
@@ -4858,7 +4858,7 @@
         <v>-16.76317600305748</v>
       </c>
       <c r="B553" t="n">
-        <v>-145.0131760030575</v>
+        <v>128.25</v>
       </c>
     </row>
     <row r="554">
@@ -4866,7 +4866,7 @@
         <v>87.82637788594729</v>
       </c>
       <c r="B554" t="n">
-        <v>87.07637788594729</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="555">
@@ -4874,7 +4874,7 @@
         <v>43.15034538394417</v>
       </c>
       <c r="B555" t="n">
-        <v>-729.8496546160559</v>
+        <v>773</v>
       </c>
     </row>
     <row r="556">
@@ -4882,7 +4882,7 @@
         <v>99.93402354007515</v>
       </c>
       <c r="B556" t="n">
-        <v>-59.56597645992485</v>
+        <v>159.5</v>
       </c>
     </row>
     <row r="557">
@@ -4890,7 +4890,7 @@
         <v>53.46502543657493</v>
       </c>
       <c r="B557" t="n">
-        <v>211.9650254365749</v>
+        <v>-158.5</v>
       </c>
     </row>
     <row r="558">
@@ -4898,7 +4898,7 @@
         <v>285.903046276807</v>
       </c>
       <c r="B558" t="n">
-        <v>305.403046276807</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="559">
@@ -4906,7 +4906,7 @@
         <v>131.1752149325979</v>
       </c>
       <c r="B559" t="n">
-        <v>667.1752149325979</v>
+        <v>-536</v>
       </c>
     </row>
     <row r="560">
@@ -4914,7 +4914,7 @@
         <v>243.4541778319391</v>
       </c>
       <c r="B560" t="n">
-        <v>-1078.545822168061</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="561">
@@ -4922,7 +4922,7 @@
         <v>227.2703684260709</v>
       </c>
       <c r="B561" t="n">
-        <v>957.5203684260709</v>
+        <v>-730.25</v>
       </c>
     </row>
     <row r="562">
@@ -4930,7 +4930,7 @@
         <v>377.2641444405599</v>
       </c>
       <c r="B562" t="n">
-        <v>988.0141444405599</v>
+        <v>-610.75</v>
       </c>
     </row>
     <row r="563">
@@ -4938,7 +4938,7 @@
         <v>727.2924697483481</v>
       </c>
       <c r="B563" t="n">
-        <v>1169.292469748348</v>
+        <v>-442</v>
       </c>
     </row>
     <row r="564">
@@ -4946,7 +4946,7 @@
         <v>184.8768983017545</v>
       </c>
       <c r="B564" t="n">
-        <v>486.1268983017545</v>
+        <v>-301.25</v>
       </c>
     </row>
     <row r="565">
@@ -4954,7 +4954,7 @@
         <v>201.0528801996862</v>
       </c>
       <c r="B565" t="n">
-        <v>-305.4471198003138</v>
+        <v>506.5</v>
       </c>
     </row>
     <row r="566">
@@ -4962,7 +4962,7 @@
         <v>288.0125639024727</v>
       </c>
       <c r="B566" t="n">
-        <v>-780.4874360975273</v>
+        <v>1068.5</v>
       </c>
     </row>
     <row r="567">
@@ -4970,7 +4970,7 @@
         <v>34.96732049185601</v>
       </c>
       <c r="B567" t="n">
-        <v>303.217320491856</v>
+        <v>-268.25</v>
       </c>
     </row>
     <row r="568">
@@ -4978,7 +4978,7 @@
         <v>228.831529410666</v>
       </c>
       <c r="B568" t="n">
-        <v>308.581529410666</v>
+        <v>-79.75</v>
       </c>
     </row>
     <row r="569">
@@ -4986,7 +4986,7 @@
         <v>139.9539485904563</v>
       </c>
       <c r="B569" t="n">
-        <v>-124.2960514095437</v>
+        <v>264.25</v>
       </c>
     </row>
     <row r="570">
@@ -4994,7 +4994,7 @@
         <v>146.822045602294</v>
       </c>
       <c r="B570" t="n">
-        <v>98.572045602294</v>
+        <v>48.25</v>
       </c>
     </row>
     <row r="571">
@@ -5002,7 +5002,7 @@
         <v>221.200440010842</v>
       </c>
       <c r="B571" t="n">
-        <v>804.950440010842</v>
+        <v>-583.75</v>
       </c>
     </row>
     <row r="572">
@@ -5010,7 +5010,7 @@
         <v>79.91148279286921</v>
       </c>
       <c r="B572" t="n">
-        <v>-186.5885172071308</v>
+        <v>266.5</v>
       </c>
     </row>
     <row r="573">
@@ -5018,7 +5018,7 @@
         <v>294.2406389634123</v>
       </c>
       <c r="B573" t="n">
-        <v>100.4906389634123</v>
+        <v>193.75</v>
       </c>
     </row>
     <row r="574">
@@ -5026,7 +5026,7 @@
         <v>76.06442728177569</v>
       </c>
       <c r="B574" t="n">
-        <v>-183.9355727182243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="575">
@@ -5034,7 +5034,7 @@
         <v>203.1647536124244</v>
       </c>
       <c r="B575" t="n">
-        <v>335.9147536124244</v>
+        <v>-132.75</v>
       </c>
     </row>
     <row r="576">
@@ -5042,7 +5042,7 @@
         <v>242.2182273275871</v>
       </c>
       <c r="B576" t="n">
-        <v>456.9682273275871</v>
+        <v>-214.75</v>
       </c>
     </row>
     <row r="577">
@@ -5050,7 +5050,7 @@
         <v>-62.48909833801326</v>
       </c>
       <c r="B577" t="n">
-        <v>547.2609016619867</v>
+        <v>-609.75</v>
       </c>
     </row>
     <row r="578">
@@ -5058,7 +5058,7 @@
         <v>257.1184260114882</v>
       </c>
       <c r="B578" t="n">
-        <v>712.3684260114882</v>
+        <v>-455.25</v>
       </c>
     </row>
     <row r="579">
@@ -5066,7 +5066,7 @@
         <v>155.095690051207</v>
       </c>
       <c r="B579" t="n">
-        <v>-2334.154309948793</v>
+        <v>2489.25</v>
       </c>
     </row>
     <row r="580">
@@ -5074,7 +5074,7 @@
         <v>208.0551821466053</v>
       </c>
       <c r="B580" t="n">
-        <v>636.8051821466053</v>
+        <v>-428.75</v>
       </c>
     </row>
     <row r="581">
@@ -5082,7 +5082,7 @@
         <v>-1006.539855087228</v>
       </c>
       <c r="B581" t="n">
-        <v>329.9601449127715</v>
+        <v>-1336.5</v>
       </c>
     </row>
     <row r="582">
@@ -5090,7 +5090,7 @@
         <v>252.6264715338564</v>
       </c>
       <c r="B582" t="n">
-        <v>-525.6235284661436</v>
+        <v>778.25</v>
       </c>
     </row>
     <row r="583">
@@ -5098,7 +5098,7 @@
         <v>204.1347694742835</v>
       </c>
       <c r="B583" t="n">
-        <v>593.3847694742835</v>
+        <v>-389.25</v>
       </c>
     </row>
     <row r="584">
@@ -5106,7 +5106,7 @@
         <v>209.7351624376316</v>
       </c>
       <c r="B584" t="n">
-        <v>352.9851624376316</v>
+        <v>-143.25</v>
       </c>
     </row>
     <row r="585">
@@ -5114,7 +5114,7 @@
         <v>257.8104514663868</v>
       </c>
       <c r="B585" t="n">
-        <v>505.3104514663868</v>
+        <v>-247.5</v>
       </c>
     </row>
     <row r="586">
@@ -5122,7 +5122,7 @@
         <v>183.118173453599</v>
       </c>
       <c r="B586" t="n">
-        <v>302.118173453599</v>
+        <v>-119</v>
       </c>
     </row>
     <row r="587">
@@ -5130,7 +5130,7 @@
         <v>73.49342472544947</v>
       </c>
       <c r="B587" t="n">
-        <v>919.2434247254495</v>
+        <v>-845.75</v>
       </c>
     </row>
     <row r="588">
@@ -5138,7 +5138,7 @@
         <v>183.5328507635854</v>
       </c>
       <c r="B588" t="n">
-        <v>529.7828507635854</v>
+        <v>-346.25</v>
       </c>
     </row>
     <row r="589">
@@ -5146,7 +5146,7 @@
         <v>362.8328951601177</v>
       </c>
       <c r="B589" t="n">
-        <v>748.8328951601177</v>
+        <v>-386</v>
       </c>
     </row>
     <row r="590">
@@ -5154,7 +5154,7 @@
         <v>203.0320406356674</v>
       </c>
       <c r="B590" t="n">
-        <v>256.0320406356674</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="591">
@@ -5162,7 +5162,7 @@
         <v>202.4766175571127</v>
       </c>
       <c r="B591" t="n">
-        <v>-661.2733824428873</v>
+        <v>863.75</v>
       </c>
     </row>
     <row r="592">
@@ -5170,7 +5170,7 @@
         <v>302.5095693480769</v>
       </c>
       <c r="B592" t="n">
-        <v>1058.259569348077</v>
+        <v>-755.75</v>
       </c>
     </row>
     <row r="593">
@@ -5178,7 +5178,7 @@
         <v>236.0910723057032</v>
       </c>
       <c r="B593" t="n">
-        <v>-2370.408927694297</v>
+        <v>2606.5</v>
       </c>
     </row>
     <row r="594">
@@ -5186,7 +5186,7 @@
         <v>312.4892649519866</v>
       </c>
       <c r="B594" t="n">
-        <v>-3477.260735048013</v>
+        <v>3789.75</v>
       </c>
     </row>
     <row r="595">
@@ -5194,7 +5194,7 @@
         <v>255.2731590665186</v>
       </c>
       <c r="B595" t="n">
-        <v>698.2731590665186</v>
+        <v>-443</v>
       </c>
     </row>
     <row r="596">
@@ -5202,7 +5202,7 @@
         <v>233.8623510707737</v>
       </c>
       <c r="B596" t="n">
-        <v>1005.362351070774</v>
+        <v>-771.5</v>
       </c>
     </row>
     <row r="597">
@@ -5210,7 +5210,7 @@
         <v>109.9814227260172</v>
       </c>
       <c r="B597" t="n">
-        <v>-79.51857727398283</v>
+        <v>189.5</v>
       </c>
     </row>
     <row r="598">
@@ -5218,7 +5218,7 @@
         <v>175.3450258627242</v>
       </c>
       <c r="B598" t="n">
-        <v>500.8450258627242</v>
+        <v>-325.5</v>
       </c>
     </row>
     <row r="599">
@@ -5226,7 +5226,7 @@
         <v>-878.9826407063372</v>
       </c>
       <c r="B599" t="n">
-        <v>899.5173592936628</v>
+        <v>-1778.5</v>
       </c>
     </row>
     <row r="600">
@@ -5234,7 +5234,7 @@
         <v>-47.52823524113381</v>
       </c>
       <c r="B600" t="n">
-        <v>232.2217647588662</v>
+        <v>-279.75</v>
       </c>
     </row>
     <row r="601">
@@ -5242,7 +5242,7 @@
         <v>165.2547224742153</v>
       </c>
       <c r="B601" t="n">
-        <v>-298.4952775257847</v>
+        <v>463.75</v>
       </c>
     </row>
     <row r="602">
@@ -5250,7 +5250,7 @@
         <v>-531.2258636667398</v>
       </c>
       <c r="B602" t="n">
-        <v>-122.2258636667398</v>
+        <v>-409</v>
       </c>
     </row>
     <row r="603">
@@ -5258,7 +5258,7 @@
         <v>-408.8618283158414</v>
       </c>
       <c r="B603" t="n">
-        <v>-264.8618283158414</v>
+        <v>-144</v>
       </c>
     </row>
     <row r="604">
@@ -5266,7 +5266,7 @@
         <v>-885.939220380536</v>
       </c>
       <c r="B604" t="n">
-        <v>333.310779619464</v>
+        <v>-1219.25</v>
       </c>
     </row>
     <row r="605">
@@ -5274,7 +5274,7 @@
         <v>87.61084574806614</v>
       </c>
       <c r="B605" t="n">
-        <v>827.3608457480661</v>
+        <v>-739.75</v>
       </c>
     </row>
     <row r="606">
@@ -5282,7 +5282,7 @@
         <v>295.3903882152995</v>
       </c>
       <c r="B606" t="n">
-        <v>498.1403882152995</v>
+        <v>-202.75</v>
       </c>
     </row>
     <row r="607">
@@ -5290,7 +5290,7 @@
         <v>-536.0597774945982</v>
       </c>
       <c r="B607" t="n">
-        <v>1176.690222505402</v>
+        <v>-1712.75</v>
       </c>
     </row>
     <row r="608">
@@ -5298,7 +5298,7 @@
         <v>-53.39137421565079</v>
       </c>
       <c r="B608" t="n">
-        <v>387.6086257843492</v>
+        <v>-441</v>
       </c>
     </row>
     <row r="609">
@@ -5306,7 +5306,7 @@
         <v>98.70597364348691</v>
       </c>
       <c r="B609" t="n">
-        <v>364.9559736434869</v>
+        <v>-266.25</v>
       </c>
     </row>
     <row r="610">
@@ -5314,7 +5314,7 @@
         <v>287.3565137971887</v>
       </c>
       <c r="B610" t="n">
-        <v>634.6065137971887</v>
+        <v>-347.25</v>
       </c>
     </row>
     <row r="611">
@@ -5322,7 +5322,7 @@
         <v>267.6529338356439</v>
       </c>
       <c r="B611" t="n">
-        <v>-58.34706616435608</v>
+        <v>326</v>
       </c>
     </row>
     <row r="612">
@@ -5330,7 +5330,7 @@
         <v>79.00922708743536</v>
       </c>
       <c r="B612" t="n">
-        <v>152.5092270874354</v>
+        <v>-73.5</v>
       </c>
     </row>
     <row r="613">
@@ -5338,7 +5338,7 @@
         <v>261.9906889311336</v>
       </c>
       <c r="B613" t="n">
-        <v>355.2406889311336</v>
+        <v>-93.25</v>
       </c>
     </row>
     <row r="614">
@@ -5346,7 +5346,7 @@
         <v>307.3202102680536</v>
       </c>
       <c r="B614" t="n">
-        <v>-1990.679789731946</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="615">
@@ -5354,7 +5354,7 @@
         <v>227.113890544979</v>
       </c>
       <c r="B615" t="n">
-        <v>675.113890544979</v>
+        <v>-448</v>
       </c>
     </row>
     <row r="616">
@@ -5362,7 +5362,7 @@
         <v>284.3649184092478</v>
       </c>
       <c r="B616" t="n">
-        <v>693.3649184092478</v>
+        <v>-409</v>
       </c>
     </row>
     <row r="617">
@@ -5370,7 +5370,7 @@
         <v>23.58087099654358</v>
       </c>
       <c r="B617" t="n">
-        <v>-1460.669129003456</v>
+        <v>1484.25</v>
       </c>
     </row>
     <row r="618">
@@ -5378,7 +5378,7 @@
         <v>244.8302197810929</v>
       </c>
       <c r="B618" t="n">
-        <v>-267.1697802189071</v>
+        <v>512</v>
       </c>
     </row>
     <row r="619">
@@ -5386,7 +5386,7 @@
         <v>-30.10264180856336</v>
       </c>
       <c r="B619" t="n">
-        <v>455.6473581914366</v>
+        <v>-485.75</v>
       </c>
     </row>
     <row r="620">
@@ -5394,7 +5394,7 @@
         <v>79.69387411221803</v>
       </c>
       <c r="B620" t="n">
-        <v>-233.556125887782</v>
+        <v>313.25</v>
       </c>
     </row>
     <row r="621">
@@ -5402,7 +5402,7 @@
         <v>295.3603213951842</v>
       </c>
       <c r="B621" t="n">
-        <v>950.8603213951842</v>
+        <v>-655.5</v>
       </c>
     </row>
     <row r="622">
@@ -5410,7 +5410,7 @@
         <v>5.647366190968626</v>
       </c>
       <c r="B622" t="n">
-        <v>111.3973661909686</v>
+        <v>-105.75</v>
       </c>
     </row>
     <row r="623">
@@ -5418,7 +5418,7 @@
         <v>-297.0641448837578</v>
       </c>
       <c r="B623" t="n">
-        <v>700.6858551162422</v>
+        <v>-997.75</v>
       </c>
     </row>
     <row r="624">
@@ -5426,7 +5426,7 @@
         <v>-572.6377653328498</v>
       </c>
       <c r="B624" t="n">
-        <v>610.3622346671502</v>
+        <v>-1183</v>
       </c>
     </row>
     <row r="625">
@@ -5434,7 +5434,7 @@
         <v>-478.9743368297388</v>
       </c>
       <c r="B625" t="n">
-        <v>-1418.974336829739</v>
+        <v>940</v>
       </c>
     </row>
     <row r="626">
@@ -5442,7 +5442,7 @@
         <v>453.8243283261628</v>
       </c>
       <c r="B626" t="n">
-        <v>-187.1756716738372</v>
+        <v>641</v>
       </c>
     </row>
     <row r="627">
@@ -5450,7 +5450,7 @@
         <v>12.82497242031053</v>
       </c>
       <c r="B627" t="n">
-        <v>-344.1750275796895</v>
+        <v>357</v>
       </c>
     </row>
     <row r="628">
@@ -5458,7 +5458,7 @@
         <v>237.7862160707107</v>
       </c>
       <c r="B628" t="n">
-        <v>665.0362160707107</v>
+        <v>-427.25</v>
       </c>
     </row>
     <row r="629">
@@ -5466,7 +5466,7 @@
         <v>84.95904019335308</v>
       </c>
       <c r="B629" t="n">
-        <v>115.7090401933531</v>
+        <v>-30.75</v>
       </c>
     </row>
     <row r="630">
@@ -5474,7 +5474,7 @@
         <v>-184.0021941679136</v>
       </c>
       <c r="B630" t="n">
-        <v>695.7478058320864</v>
+        <v>-879.75</v>
       </c>
     </row>
     <row r="631">
@@ -5482,7 +5482,7 @@
         <v>-16.56871128307773</v>
       </c>
       <c r="B631" t="n">
-        <v>691.1812887169223</v>
+        <v>-707.75</v>
       </c>
     </row>
     <row r="632">
@@ -5490,7 +5490,7 @@
         <v>-446.9611141503624</v>
       </c>
       <c r="B632" t="n">
-        <v>699.5388858496376</v>
+        <v>-1146.5</v>
       </c>
     </row>
     <row r="633">
@@ -5498,7 +5498,7 @@
         <v>-711.0611480730797</v>
       </c>
       <c r="B633" t="n">
-        <v>213.6888519269203</v>
+        <v>-924.75</v>
       </c>
     </row>
     <row r="634">
@@ -5506,7 +5506,7 @@
         <v>313.7571364384402</v>
       </c>
       <c r="B634" t="n">
-        <v>70.25713643844017</v>
+        <v>243.5</v>
       </c>
     </row>
     <row r="635">
@@ -5514,7 +5514,7 @@
         <v>-12.78696092411064</v>
       </c>
       <c r="B635" t="n">
-        <v>-2029.286960924111</v>
+        <v>2016.5</v>
       </c>
     </row>
     <row r="636">
@@ -5522,7 +5522,7 @@
         <v>236.0030701668466</v>
       </c>
       <c r="B636" t="n">
-        <v>-203.4969298331534</v>
+        <v>439.5</v>
       </c>
     </row>
     <row r="637">
@@ -5530,7 +5530,7 @@
         <v>175.8701488679725</v>
       </c>
       <c r="B637" t="n">
-        <v>-519.6298511320274</v>
+        <v>695.5</v>
       </c>
     </row>
     <row r="638">
@@ -5538,7 +5538,7 @@
         <v>-69.27401852676132</v>
       </c>
       <c r="B638" t="n">
-        <v>-1156.274018526761</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="639">
@@ -5546,7 +5546,7 @@
         <v>-1302.271615109579</v>
       </c>
       <c r="B639" t="n">
-        <v>-7.521615109579216</v>
+        <v>-1294.75</v>
       </c>
     </row>
     <row r="640">
@@ -5554,7 +5554,7 @@
         <v>289.894017621378</v>
       </c>
       <c r="B640" t="n">
-        <v>493.644017621378</v>
+        <v>-203.75</v>
       </c>
     </row>
     <row r="641">
@@ -5562,7 +5562,7 @@
         <v>-736.9670808089288</v>
       </c>
       <c r="B641" t="n">
-        <v>494.5329191910712</v>
+        <v>-1231.5</v>
       </c>
     </row>
     <row r="642">
@@ -5570,7 +5570,7 @@
         <v>44.16755142268255</v>
       </c>
       <c r="B642" t="n">
-        <v>841.1675514226825</v>
+        <v>-797</v>
       </c>
     </row>
     <row r="643">
@@ -5578,7 +5578,7 @@
         <v>374.6097172428707</v>
       </c>
       <c r="B643" t="n">
-        <v>-780.3902827571293</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="644">
@@ -5586,7 +5586,7 @@
         <v>248.5756229004051</v>
       </c>
       <c r="B644" t="n">
-        <v>462.5756229004051</v>
+        <v>-214</v>
       </c>
     </row>
     <row r="645">
@@ -5594,7 +5594,7 @@
         <v>-258.5359644662977</v>
       </c>
       <c r="B645" t="n">
-        <v>64.46403553370226</v>
+        <v>-323</v>
       </c>
     </row>
     <row r="646">
@@ -5602,7 +5602,7 @@
         <v>-291.0132718928614</v>
       </c>
       <c r="B646" t="n">
-        <v>1170.736728107139</v>
+        <v>-1461.75</v>
       </c>
     </row>
     <row r="647">
@@ -5610,7 +5610,7 @@
         <v>-12.44359370648863</v>
       </c>
       <c r="B647" t="n">
-        <v>-402.9435937064886</v>
+        <v>390.5</v>
       </c>
     </row>
     <row r="648">
@@ -5618,7 +5618,7 @@
         <v>149.3987359948965</v>
       </c>
       <c r="B648" t="n">
-        <v>-2443.601264005104</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="649">
@@ -5626,7 +5626,7 @@
         <v>295.7987562960481</v>
       </c>
       <c r="B649" t="n">
-        <v>669.7987562960481</v>
+        <v>-374</v>
       </c>
     </row>
     <row r="650">
@@ -5634,7 +5634,7 @@
         <v>171.8261913375597</v>
       </c>
       <c r="B650" t="n">
-        <v>-506.9238086624403</v>
+        <v>678.75</v>
       </c>
     </row>
     <row r="651">
@@ -5642,7 +5642,7 @@
         <v>177.0914783844075</v>
       </c>
       <c r="B651" t="n">
-        <v>794.8414783844075</v>
+        <v>-617.75</v>
       </c>
     </row>
     <row r="652">
@@ -5650,7 +5650,7 @@
         <v>166.4061246086915</v>
       </c>
       <c r="B652" t="n">
-        <v>311.6561246086915</v>
+        <v>-145.25</v>
       </c>
     </row>
     <row r="653">
@@ -5658,7 +5658,7 @@
         <v>237.5234661077798</v>
       </c>
       <c r="B653" t="n">
-        <v>100.7734661077798</v>
+        <v>136.75</v>
       </c>
     </row>
     <row r="654">
@@ -5666,7 +5666,7 @@
         <v>-15.11081747384407</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.360817473844065</v>
+        <v>-13.75</v>
       </c>
     </row>
     <row r="655">
@@ -5674,7 +5674,7 @@
         <v>97.14014300160562</v>
       </c>
       <c r="B655" t="n">
-        <v>-1038.359856998394</v>
+        <v>1135.5</v>
       </c>
     </row>
     <row r="656">
@@ -5682,7 +5682,7 @@
         <v>217.472096675644</v>
       </c>
       <c r="B656" t="n">
-        <v>903.222096675644</v>
+        <v>-685.75</v>
       </c>
     </row>
     <row r="657">
@@ -5690,7 +5690,7 @@
         <v>6.330849844413478</v>
       </c>
       <c r="B657" t="n">
-        <v>282.3308498444135</v>
+        <v>-276</v>
       </c>
     </row>
     <row r="658">
@@ -5698,7 +5698,7 @@
         <v>121.360581105288</v>
       </c>
       <c r="B658" t="n">
-        <v>-172.889418894712</v>
+        <v>294.25</v>
       </c>
     </row>
     <row r="659">
@@ -5706,7 +5706,7 @@
         <v>239.5317222118931</v>
       </c>
       <c r="B659" t="n">
-        <v>-252.2182777881069</v>
+        <v>491.75</v>
       </c>
     </row>
     <row r="660">
@@ -5714,7 +5714,7 @@
         <v>89.22232266238859</v>
       </c>
       <c r="B660" t="n">
-        <v>168.9723226623886</v>
+        <v>-79.75</v>
       </c>
     </row>
     <row r="661">
@@ -5722,7 +5722,7 @@
         <v>223.2130917981581</v>
       </c>
       <c r="B661" t="n">
-        <v>674.2130917981581</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="662">
@@ -5730,7 +5730,7 @@
         <v>218.8341071774954</v>
       </c>
       <c r="B662" t="n">
-        <v>310.8341071774954</v>
+        <v>-92</v>
       </c>
     </row>
     <row r="663">
@@ -5738,7 +5738,7 @@
         <v>304.0311020007415</v>
       </c>
       <c r="B663" t="n">
-        <v>-405.4688979992585</v>
+        <v>709.5</v>
       </c>
     </row>
     <row r="664">
@@ -5746,7 +5746,7 @@
         <v>109.1808102174462</v>
       </c>
       <c r="B664" t="n">
-        <v>798.6808102174462</v>
+        <v>-689.5</v>
       </c>
     </row>
     <row r="665">
@@ -5754,7 +5754,7 @@
         <v>-204.7140785545239</v>
       </c>
       <c r="B665" t="n">
-        <v>79.53592144547611</v>
+        <v>-284.25</v>
       </c>
     </row>
     <row r="666">
@@ -5762,7 +5762,7 @@
         <v>82.28897710736192</v>
       </c>
       <c r="B666" t="n">
-        <v>-12.46102289263808</v>
+        <v>94.75</v>
       </c>
     </row>
     <row r="667">
@@ -5770,7 +5770,7 @@
         <v>-142.2979661002272</v>
       </c>
       <c r="B667" t="n">
-        <v>664.9520338997728</v>
+        <v>-807.25</v>
       </c>
     </row>
     <row r="668">
@@ -5778,7 +5778,7 @@
         <v>83.20035569396134</v>
       </c>
       <c r="B668" t="n">
-        <v>309.2003556939613</v>
+        <v>-226</v>
       </c>
     </row>
     <row r="669">
@@ -5786,7 +5786,7 @@
         <v>-405.3905884387655</v>
       </c>
       <c r="B669" t="n">
-        <v>515.8594115612345</v>
+        <v>-921.25</v>
       </c>
     </row>
     <row r="670">
@@ -5794,7 +5794,7 @@
         <v>-123.795376734382</v>
       </c>
       <c r="B670" t="n">
-        <v>-804.045376734382</v>
+        <v>680.25</v>
       </c>
     </row>
     <row r="671">
@@ -5802,7 +5802,7 @@
         <v>217.097441154192</v>
       </c>
       <c r="B671" t="n">
-        <v>-99.40255884580802</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="672">
@@ -5810,7 +5810,7 @@
         <v>-21.90665164260975</v>
       </c>
       <c r="B672" t="n">
-        <v>504.0933483573903</v>
+        <v>-526</v>
       </c>
     </row>
     <row r="673">
@@ -5818,7 +5818,7 @@
         <v>-42.24254955608956</v>
       </c>
       <c r="B673" t="n">
-        <v>595.0074504439104</v>
+        <v>-637.25</v>
       </c>
     </row>
     <row r="674">
@@ -5826,7 +5826,7 @@
         <v>-761.8436689006293</v>
       </c>
       <c r="B674" t="n">
-        <v>-1843.843668900629</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="675">
@@ -5834,7 +5834,7 @@
         <v>-735.70859481497</v>
       </c>
       <c r="B675" t="n">
-        <v>298.29140518503</v>
+        <v>-1034</v>
       </c>
     </row>
     <row r="676">
@@ -5842,7 +5842,7 @@
         <v>12.73148803433418</v>
       </c>
       <c r="B676" t="n">
-        <v>138.2314880343342</v>
+        <v>-125.5</v>
       </c>
     </row>
     <row r="677">
@@ -5850,7 +5850,7 @@
         <v>295.3589522845591</v>
       </c>
       <c r="B677" t="n">
-        <v>799.6089522845591</v>
+        <v>-504.25</v>
       </c>
     </row>
     <row r="678">
@@ -5858,7 +5858,7 @@
         <v>-16.21824887535217</v>
       </c>
       <c r="B678" t="n">
-        <v>-182.9682488753522</v>
+        <v>166.75</v>
       </c>
     </row>
     <row r="679">
@@ -5866,7 +5866,7 @@
         <v>224.9811149615933</v>
       </c>
       <c r="B679" t="n">
-        <v>-831.0188850384068</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="680">
@@ -5874,7 +5874,7 @@
         <v>284.8948130788741</v>
       </c>
       <c r="B680" t="n">
-        <v>652.3948130788741</v>
+        <v>-367.5</v>
       </c>
     </row>
     <row r="681">
@@ -5882,7 +5882,7 @@
         <v>214.9947329749738</v>
       </c>
       <c r="B681" t="n">
-        <v>594.9947329749738</v>
+        <v>-380</v>
       </c>
     </row>
     <row r="682">
@@ -5890,7 +5890,7 @@
         <v>-189.0487625725045</v>
       </c>
       <c r="B682" t="n">
-        <v>374.9512374274955</v>
+        <v>-564</v>
       </c>
     </row>
     <row r="683">
@@ -5898,7 +5898,7 @@
         <v>194.7748638465513</v>
       </c>
       <c r="B683" t="n">
-        <v>686.2748638465513</v>
+        <v>-491.5</v>
       </c>
     </row>
     <row r="684">
@@ -5906,7 +5906,7 @@
         <v>56.64380819881262</v>
       </c>
       <c r="B684" t="n">
-        <v>156.6438081988126</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="685">
@@ -5914,7 +5914,7 @@
         <v>238.651157956195</v>
       </c>
       <c r="B685" t="n">
-        <v>237.901157956195</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="686">
@@ -5922,7 +5922,7 @@
         <v>177.7025282987086</v>
       </c>
       <c r="B686" t="n">
-        <v>-528.7974717012914</v>
+        <v>706.5</v>
       </c>
     </row>
     <row r="687">
@@ -5930,7 +5930,7 @@
         <v>198.7477388869129</v>
       </c>
       <c r="B687" t="n">
-        <v>271.7477388869129</v>
+        <v>-73</v>
       </c>
     </row>
     <row r="688">
@@ -5938,7 +5938,7 @@
         <v>382.1782625097547</v>
       </c>
       <c r="B688" t="n">
-        <v>150.9282625097547</v>
+        <v>231.25</v>
       </c>
     </row>
     <row r="689">
@@ -5946,7 +5946,7 @@
         <v>8.314497169807794</v>
       </c>
       <c r="B689" t="n">
-        <v>-287.1855028301922</v>
+        <v>295.5</v>
       </c>
     </row>
     <row r="690">
@@ -5954,7 +5954,7 @@
         <v>32.53757703801136</v>
       </c>
       <c r="B690" t="n">
-        <v>-151.9624229619886</v>
+        <v>184.5</v>
       </c>
     </row>
     <row r="691">
@@ -5962,7 +5962,7 @@
         <v>-412.6324740990642</v>
       </c>
       <c r="B691" t="n">
-        <v>889.1175259009358</v>
+        <v>-1301.75</v>
       </c>
     </row>
     <row r="692">
@@ -5970,7 +5970,7 @@
         <v>-573.1914741010892</v>
       </c>
       <c r="B692" t="n">
-        <v>57.55852589891083</v>
+        <v>-630.75</v>
       </c>
     </row>
     <row r="693">
@@ -5978,7 +5978,7 @@
         <v>184.9025950073678</v>
       </c>
       <c r="B693" t="n">
-        <v>-450.5974049926322</v>
+        <v>635.5</v>
       </c>
     </row>
     <row r="694">
@@ -5986,7 +5986,7 @@
         <v>212.8077585295341</v>
       </c>
       <c r="B694" t="n">
-        <v>486.3077585295341</v>
+        <v>-273.5</v>
       </c>
     </row>
     <row r="695">
@@ -5994,7 +5994,7 @@
         <v>348.2032059909695</v>
       </c>
       <c r="B695" t="n">
-        <v>-385.0467940090305</v>
+        <v>733.25</v>
       </c>
     </row>
     <row r="696">
@@ -6002,7 +6002,7 @@
         <v>140.6027290605504</v>
       </c>
       <c r="B696" t="n">
-        <v>50.35272906055036</v>
+        <v>90.25</v>
       </c>
     </row>
     <row r="697">
@@ -6010,7 +6010,7 @@
         <v>121.030652192977</v>
       </c>
       <c r="B697" t="n">
-        <v>190.530652192977</v>
+        <v>-69.5</v>
       </c>
     </row>
     <row r="698">
@@ -6018,7 +6018,7 @@
         <v>226.004841525547</v>
       </c>
       <c r="B698" t="n">
-        <v>-281.995158474453</v>
+        <v>508</v>
       </c>
     </row>
     <row r="699">
@@ -6026,7 +6026,7 @@
         <v>-267.9816034305777</v>
       </c>
       <c r="B699" t="n">
-        <v>-5338.981603430578</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="700">
@@ -6034,7 +6034,7 @@
         <v>421.2531396141521</v>
       </c>
       <c r="B700" t="n">
-        <v>-93.99686038584787</v>
+        <v>515.25</v>
       </c>
     </row>
     <row r="701">
@@ -6042,7 +6042,7 @@
         <v>235.9938442806182</v>
       </c>
       <c r="B701" t="n">
-        <v>659.7438442806182</v>
+        <v>-423.75</v>
       </c>
     </row>
     <row r="702">
@@ -6050,7 +6050,7 @@
         <v>-7.276011229747951</v>
       </c>
       <c r="B702" t="n">
-        <v>159.723988770252</v>
+        <v>-167</v>
       </c>
     </row>
     <row r="703">
@@ -6058,7 +6058,7 @@
         <v>-236.090715107935</v>
       </c>
       <c r="B703" t="n">
-        <v>5.909284892064989</v>
+        <v>-242</v>
       </c>
     </row>
     <row r="704">
@@ -6066,7 +6066,7 @@
         <v>363.3064524311559</v>
       </c>
       <c r="B704" t="n">
-        <v>138.3064524311559</v>
+        <v>225</v>
       </c>
     </row>
     <row r="705">
@@ -6074,7 +6074,7 @@
         <v>287.5446307999514</v>
       </c>
       <c r="B705" t="n">
-        <v>610.7946307999514</v>
+        <v>-323.25</v>
       </c>
     </row>
     <row r="706">
@@ -6082,7 +6082,7 @@
         <v>-688.5365193472703</v>
       </c>
       <c r="B706" t="n">
-        <v>-2407.53651934727</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="707">
@@ -6090,7 +6090,7 @@
         <v>189.9648277956647</v>
       </c>
       <c r="B707" t="n">
-        <v>186.9648277956647</v>
+        <v>3</v>
       </c>
     </row>
     <row r="708">
@@ -6098,7 +6098,7 @@
         <v>214.5166049759749</v>
       </c>
       <c r="B708" t="n">
-        <v>-294.9833950240251</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="709">
@@ -6106,7 +6106,7 @@
         <v>100.8910449101569</v>
       </c>
       <c r="B709" t="n">
-        <v>-736.858955089843</v>
+        <v>837.75</v>
       </c>
     </row>
     <row r="710">
@@ -6114,7 +6114,7 @@
         <v>-896.9733035832296</v>
       </c>
       <c r="B710" t="n">
-        <v>1062.77669641677</v>
+        <v>-1959.75</v>
       </c>
     </row>
     <row r="711">
@@ -6122,7 +6122,7 @@
         <v>-518.9695294234632</v>
       </c>
       <c r="B711" t="n">
-        <v>1015.530470576537</v>
+        <v>-1534.5</v>
       </c>
     </row>
     <row r="712">
@@ -6130,7 +6130,7 @@
         <v>-144.473205481401</v>
       </c>
       <c r="B712" t="n">
-        <v>260.776794518599</v>
+        <v>-405.25</v>
       </c>
     </row>
     <row r="713">
@@ -6138,7 +6138,7 @@
         <v>-498.0075325062403</v>
       </c>
       <c r="B713" t="n">
-        <v>-1492.25753250624</v>
+        <v>994.25</v>
       </c>
     </row>
     <row r="714">
@@ -6146,7 +6146,7 @@
         <v>270.4100678564319</v>
       </c>
       <c r="B714" t="n">
-        <v>-147.5899321435681</v>
+        <v>418</v>
       </c>
     </row>
     <row r="715">
@@ -6154,7 +6154,7 @@
         <v>-1313.488860657603</v>
       </c>
       <c r="B715" t="n">
-        <v>1064.011139342397</v>
+        <v>-2377.5</v>
       </c>
     </row>
   </sheetData>

--- a/Assignment1/confusion_matrix.xlsx
+++ b/Assignment1/confusion_matrix.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Diff</t>
+          <t>Real_Profit</t>
         </is>
       </c>
     </row>
